--- a/project2/DBSCAN.xlsx
+++ b/project2/DBSCAN.xlsx
@@ -475,19 +475,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01841244951891877</v>
+        <v>0.02718064642706683</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2464376958368139</v>
+        <v>0.2486848616221878</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03426482268347963</v>
+        <v>0.04900514996104451</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0005349289654941177</v>
+        <v>0.000709164276078777</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02496917973107755</v>
+        <v>0.03660071188798249</v>
       </c>
       <c r="G2" t="n">
         <v>0.05</v>
@@ -995,19 +995,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1844341382417571</v>
+        <v>0.1602514706790016</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2408828689221926</v>
+        <v>0.2481476926807026</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2089125221825007</v>
+        <v>0.194741009607108</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004899796521665595</v>
+        <v>0.003079126194237834</v>
       </c>
       <c r="F22" t="n">
-        <v>0.163554907083992</v>
+        <v>0.1573860598054087</v>
       </c>
       <c r="G22" t="n">
         <v>0.1</v>
@@ -1515,19 +1515,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4430769234177598</v>
+        <v>0.4317720561133819</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2715164013698559</v>
+        <v>0.2693018380089082</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3367024224923247</v>
+        <v>0.3317111342672152</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0244608308538554</v>
+        <v>0.02730533072020008</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2975349941525815</v>
+        <v>0.2923649921344971</v>
       </c>
       <c r="G42" t="n">
         <v>0.15</v>
@@ -2035,19 +2035,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.662400450536261</v>
+        <v>0.6332824552493227</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3011863425731756</v>
+        <v>0.3010794496165684</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4140902935625475</v>
+        <v>0.4081252287477661</v>
       </c>
       <c r="E62" t="n">
-        <v>0.06666983803544888</v>
+        <v>0.06324309899157793</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3835285878955881</v>
+        <v>0.3781788438802832</v>
       </c>
       <c r="G62" t="n">
         <v>0.2</v>
@@ -2061,19 +2061,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.05266606664745217</v>
+        <v>0.04458551594413272</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2953357700355871</v>
+        <v>0.2726012582445905</v>
       </c>
       <c r="D63" t="n">
-        <v>0.08939132905920613</v>
+        <v>0.07663666164480913</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001398729134185082</v>
+        <v>0.003017337324380856</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08378679366723596</v>
+        <v>0.07080218814964921</v>
       </c>
       <c r="G63" t="n">
         <v>0.2</v>
@@ -2555,19 +2555,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7392830044942603</v>
+        <v>0.7349303331657906</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3310037034156328</v>
+        <v>0.332021153740981</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4572707678257696</v>
+        <v>0.4574011473462068</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1148298043789659</v>
+        <v>0.1248934747479225</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4360917061251821</v>
+        <v>0.4351780686199321</v>
       </c>
       <c r="G82" t="n">
         <v>0.25</v>
@@ -2581,19 +2581,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.2521479730255412</v>
+        <v>0.2565634720354865</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3139725237199124</v>
+        <v>0.3159883508616101</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2796843989815331</v>
+        <v>0.2831920716263021</v>
       </c>
       <c r="E83" t="n">
-        <v>0.02155175968524805</v>
+        <v>0.02269707533647666</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2680676518028661</v>
+        <v>0.270909600360928</v>
       </c>
       <c r="G83" t="n">
         <v>0.25</v>
@@ -2607,19 +2607,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01813936174154498</v>
+        <v>0.01942136567010572</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3029608360313744</v>
+        <v>0.3076501166335029</v>
       </c>
       <c r="D84" t="n">
-        <v>0.03422929189336969</v>
+        <v>0.03653626645470466</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.001445482263599433</v>
+        <v>-0.001432947233164818</v>
       </c>
       <c r="F84" t="n">
-        <v>0.03263333663080443</v>
+        <v>0.03495465508999162</v>
       </c>
       <c r="G84" t="n">
         <v>0.25</v>
@@ -3075,19 +3075,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8014524077435818</v>
+        <v>0.7876875582859771</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3733277139592953</v>
+        <v>0.3668097489347863</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5093793973911972</v>
+        <v>0.50053209078414</v>
       </c>
       <c r="E102" t="n">
-        <v>0.216034821464505</v>
+        <v>0.2137114793976834</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4950676756620525</v>
+        <v>0.4841236396129034</v>
       </c>
       <c r="G102" t="n">
         <v>0.3</v>
@@ -3101,19 +3101,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4814048072206141</v>
+        <v>0.4436734283815562</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3447122498657061</v>
+        <v>0.3422144445683221</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4017496861243112</v>
+        <v>0.3863947035940606</v>
       </c>
       <c r="E103" t="n">
-        <v>0.07019765606237795</v>
+        <v>0.06820481116174673</v>
       </c>
       <c r="F103" t="n">
-        <v>0.3904806581429983</v>
+        <v>0.374784794698506</v>
       </c>
       <c r="G103" t="n">
         <v>0.3</v>
@@ -3127,19 +3127,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1300170049381917</v>
+        <v>0.106975651931609</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3439616224470906</v>
+        <v>0.3496382248975763</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1887041203142673</v>
+        <v>0.1638267207661792</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0124710071763465</v>
+        <v>0.01146660573655773</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1835889818303995</v>
+        <v>0.159382407669258</v>
       </c>
       <c r="G104" t="n">
         <v>0.3</v>
@@ -3153,19 +3153,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.02851400627027803</v>
+        <v>0.02329252911871111</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3373500396118364</v>
+        <v>0.3209535672818105</v>
       </c>
       <c r="D105" t="n">
-        <v>0.05258347330401447</v>
+        <v>0.04343299976286644</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.0009212433564058175</v>
+        <v>-0.001305206539220748</v>
       </c>
       <c r="F105" t="n">
-        <v>0.05108053037988262</v>
+        <v>0.04188864084794924</v>
       </c>
       <c r="G105" t="n">
         <v>0.3</v>
@@ -3595,19 +3595,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8149009823412379</v>
+        <v>0.821700782802141</v>
       </c>
       <c r="C122" t="n">
-        <v>0.408224400508184</v>
+        <v>0.3985365754086774</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5439548057040622</v>
+        <v>0.5367444518642854</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2959165162911954</v>
+        <v>0.2729547107239672</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5330194938487135</v>
+        <v>0.5242894669448089</v>
       </c>
       <c r="G122" t="n">
         <v>0.35</v>
@@ -3621,19 +3621,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5933997882504238</v>
+        <v>0.6053041329921622</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3862423760419055</v>
+        <v>0.3776025193678174</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4679180878707344</v>
+        <v>0.46507847933027</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1495959783850246</v>
+        <v>0.1451120559318479</v>
       </c>
       <c r="F123" t="n">
-        <v>0.4596782528618055</v>
+        <v>0.4558289323824566</v>
       </c>
       <c r="G123" t="n">
         <v>0.35</v>
@@ -3647,19 +3647,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3112727132220546</v>
+        <v>0.3057377675604165</v>
       </c>
       <c r="C124" t="n">
-        <v>0.3585920969515426</v>
+        <v>0.3591904104427713</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3332610797368685</v>
+        <v>0.3303155975361782</v>
       </c>
       <c r="E124" t="n">
-        <v>0.04864155406131728</v>
+        <v>0.0464313496656294</v>
       </c>
       <c r="F124" t="n">
-        <v>0.3257608951179783</v>
+        <v>0.3226947766272211</v>
       </c>
       <c r="G124" t="n">
         <v>0.35</v>
@@ -3673,19 +3673,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.08586187980857772</v>
+        <v>0.08902845218258816</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3548243513644408</v>
+        <v>0.3584927361682306</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1382656577625131</v>
+        <v>0.1426348260173953</v>
       </c>
       <c r="E125" t="n">
-        <v>0.007764442515315699</v>
+        <v>0.008174963971838227</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1346649206061591</v>
+        <v>0.1390717129648564</v>
       </c>
       <c r="G125" t="n">
         <v>0.35</v>
@@ -3699,19 +3699,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.03115104508468809</v>
+        <v>4.157073023136313e-16</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3451223064435662</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>0.05714420372364735</v>
+        <v>8.314146046272621e-16</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.0006360885578585211</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.05565979662315796</v>
+        <v>1.23912395884306e-15</v>
       </c>
       <c r="G126" t="n">
         <v>0.35</v>
@@ -4115,19 +4115,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8142700658558105</v>
+        <v>0.7209595016963284</v>
       </c>
       <c r="C142" t="n">
-        <v>0.4610821197919525</v>
+        <v>0.4458609283201947</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5887712778839012</v>
+        <v>0.5509805355448533</v>
       </c>
       <c r="E142" t="n">
-        <v>0.430747416460055</v>
+        <v>0.3807781324225657</v>
       </c>
       <c r="F142" t="n">
-        <v>0.5803356962831295</v>
+        <v>0.541841481025319</v>
       </c>
       <c r="G142" t="n">
         <v>0.4</v>
@@ -4141,19 +4141,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.7049066745599484</v>
+        <v>0.6953577932275824</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4028437091160506</v>
+        <v>0.4036104564649178</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5126917102354112</v>
+        <v>0.5107584798915737</v>
       </c>
       <c r="E143" t="n">
-        <v>0.2150238478771006</v>
+        <v>0.2183690583083269</v>
       </c>
       <c r="F143" t="n">
-        <v>0.5047816841097365</v>
+        <v>0.5027173625029216</v>
       </c>
       <c r="G143" t="n">
         <v>0.4</v>
@@ -4167,19 +4167,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.4779736343081233</v>
+        <v>0.4657493036570276</v>
       </c>
       <c r="C144" t="n">
-        <v>0.4109664688102569</v>
+        <v>0.3877018135628392</v>
       </c>
       <c r="D144" t="n">
-        <v>0.4419445944376654</v>
+        <v>0.4231568652266232</v>
       </c>
       <c r="E144" t="n">
-        <v>0.1298799041180307</v>
+        <v>0.112318132530105</v>
       </c>
       <c r="F144" t="n">
-        <v>0.4360920020477584</v>
+        <v>0.4162877649135059</v>
       </c>
       <c r="G144" t="n">
         <v>0.4</v>
@@ -4193,19 +4193,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.2063942057527996</v>
+        <v>0.1731938742861721</v>
       </c>
       <c r="C145" t="n">
-        <v>0.3815960664356009</v>
+        <v>0.3809715514808562</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2678929253616387</v>
+        <v>0.2381308393696947</v>
       </c>
       <c r="E145" t="n">
-        <v>0.03746672994911888</v>
+        <v>0.02897062686337969</v>
       </c>
       <c r="F145" t="n">
-        <v>0.262974139692178</v>
+        <v>0.2336163155800272</v>
       </c>
       <c r="G145" t="n">
         <v>0.4</v>
@@ -4219,19 +4219,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.04052370780367036</v>
+        <v>0.07097748542291468</v>
       </c>
       <c r="C146" t="n">
-        <v>0.3707863447763619</v>
+        <v>0.3677824491206415</v>
       </c>
       <c r="D146" t="n">
-        <v>0.07306234019351907</v>
+        <v>0.118991144660556</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0008634384036360407</v>
+        <v>0.006557985059138897</v>
       </c>
       <c r="F146" t="n">
-        <v>0.07163590227209642</v>
+        <v>0.1164566481368072</v>
       </c>
       <c r="G146" t="n">
         <v>0.4</v>
@@ -4635,19 +4635,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.8184178861676467</v>
+        <v>0.6108508058767748</v>
       </c>
       <c r="C162" t="n">
-        <v>0.5335240632981253</v>
+        <v>0.5519327505905616</v>
       </c>
       <c r="D162" t="n">
-        <v>0.6459532323507953</v>
+        <v>0.5798990940537957</v>
       </c>
       <c r="E162" t="n">
-        <v>0.5665099786763315</v>
+        <v>0.4629286442381633</v>
       </c>
       <c r="F162" t="n">
-        <v>0.6398709480484507</v>
+        <v>0.5738095291778352</v>
       </c>
       <c r="G162" t="n">
         <v>0.45</v>
@@ -4661,19 +4661,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.7662239118910532</v>
+        <v>0.7656982194576162</v>
       </c>
       <c r="C163" t="n">
-        <v>0.4385528198225775</v>
+        <v>0.4277958527528984</v>
       </c>
       <c r="D163" t="n">
-        <v>0.5578289293441967</v>
+        <v>0.5489135310702569</v>
       </c>
       <c r="E163" t="n">
-        <v>0.312901739984967</v>
+        <v>0.2930231705854393</v>
       </c>
       <c r="F163" t="n">
-        <v>0.5518403810718986</v>
+        <v>0.542313949899852</v>
       </c>
       <c r="G163" t="n">
         <v>0.45</v>
@@ -4687,19 +4687,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.5551147989277446</v>
+        <v>0.558643292214939</v>
       </c>
       <c r="C164" t="n">
-        <v>0.4244139995380444</v>
+        <v>0.4172382355912963</v>
       </c>
       <c r="D164" t="n">
-        <v>0.4810445438351447</v>
+        <v>0.4776959803566533</v>
       </c>
       <c r="E164" t="n">
-        <v>0.1882718102635132</v>
+        <v>0.1810633426913957</v>
       </c>
       <c r="F164" t="n">
-        <v>0.4759981907979412</v>
+        <v>0.4722823642149338</v>
       </c>
       <c r="G164" t="n">
         <v>0.45</v>
@@ -4713,19 +4713,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.4147125188061841</v>
+        <v>0.386091118890138</v>
       </c>
       <c r="C165" t="n">
-        <v>0.4437926656271651</v>
+        <v>0.4166795043386995</v>
       </c>
       <c r="D165" t="n">
-        <v>0.4287600762980387</v>
+        <v>0.4008025490560516</v>
       </c>
       <c r="E165" t="n">
-        <v>0.138480473074123</v>
+        <v>0.1077461370646487</v>
       </c>
       <c r="F165" t="n">
-        <v>0.4241835352499804</v>
+        <v>0.3959804894379212</v>
       </c>
       <c r="G165" t="n">
         <v>0.45</v>
@@ -4739,19 +4739,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1727539733197074</v>
+        <v>0.159580431976396</v>
       </c>
       <c r="C166" t="n">
-        <v>0.4054948720182054</v>
+        <v>0.3980560001241075</v>
       </c>
       <c r="D166" t="n">
-        <v>0.2422861744271203</v>
+        <v>0.227825675633592</v>
       </c>
       <c r="E166" t="n">
-        <v>0.03575492399115426</v>
+        <v>0.03210884564016978</v>
       </c>
       <c r="F166" t="n">
-        <v>0.2386436706599442</v>
+        <v>0.2240404147789654</v>
       </c>
       <c r="G166" t="n">
         <v>0.45</v>
@@ -5155,19 +5155,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.5928552930453114</v>
+        <v>0.5886393278242122</v>
       </c>
       <c r="C182" t="n">
-        <v>0.5609536172648125</v>
+        <v>0.6213118997524282</v>
       </c>
       <c r="D182" t="n">
-        <v>0.5764634302554837</v>
+        <v>0.6045344815624607</v>
       </c>
       <c r="E182" t="n">
-        <v>0.436572433269117</v>
+        <v>0.4841332210824427</v>
       </c>
       <c r="F182" t="n">
-        <v>0.5701286678818067</v>
+        <v>0.599445014639153</v>
       </c>
       <c r="G182" t="n">
         <v>0.5</v>
@@ -5181,19 +5181,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.7944861994643393</v>
+        <v>0.7883455613213443</v>
       </c>
       <c r="C183" t="n">
-        <v>0.4552630461286266</v>
+        <v>0.4723570512871755</v>
       </c>
       <c r="D183" t="n">
-        <v>0.5788364482727502</v>
+        <v>0.5907508733889124</v>
       </c>
       <c r="E183" t="n">
-        <v>0.3696547735191391</v>
+        <v>0.3809886655898051</v>
       </c>
       <c r="F183" t="n">
-        <v>0.5734371437721163</v>
+        <v>0.5861965204562045</v>
       </c>
       <c r="G183" t="n">
         <v>0.5</v>
@@ -5207,19 +5207,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.6581463006144368</v>
+        <v>0.6632836954603761</v>
       </c>
       <c r="C184" t="n">
-        <v>0.4163321522767591</v>
+        <v>0.4264880975675326</v>
       </c>
       <c r="D184" t="n">
-        <v>0.5100287774231281</v>
+        <v>0.519159338192219</v>
       </c>
       <c r="E184" t="n">
-        <v>0.2227340487227318</v>
+        <v>0.2339180130277542</v>
       </c>
       <c r="F184" t="n">
-        <v>0.5044234663743707</v>
+        <v>0.5139504326319315</v>
       </c>
       <c r="G184" t="n">
         <v>0.5</v>
@@ -5233,19 +5233,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.5234876448905528</v>
+        <v>0.5331461508336416</v>
       </c>
       <c r="C185" t="n">
-        <v>0.4404074878738418</v>
+        <v>0.4315555931453927</v>
       </c>
       <c r="D185" t="n">
-        <v>0.478367139292517</v>
+        <v>0.4770017361162675</v>
       </c>
       <c r="E185" t="n">
-        <v>0.1796311110053042</v>
+        <v>0.178806183801023</v>
       </c>
       <c r="F185" t="n">
-        <v>0.4738545169683128</v>
+        <v>0.4721587675972437</v>
       </c>
       <c r="G185" t="n">
         <v>0.5</v>
@@ -5259,19 +5259,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.3658237061534791</v>
+        <v>0.3476783295140178</v>
       </c>
       <c r="C186" t="n">
-        <v>0.4510611709745476</v>
+        <v>0.4543364258670119</v>
       </c>
       <c r="D186" t="n">
-        <v>0.4039954071569279</v>
+        <v>0.3939152703188494</v>
       </c>
       <c r="E186" t="n">
-        <v>0.1294948457629661</v>
+        <v>0.1224370727290769</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4000475174979161</v>
+        <v>0.3903966250746587</v>
       </c>
       <c r="G186" t="n">
         <v>0.5</v>
@@ -5285,19 +5285,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.1443062582926516</v>
+        <v>0.1534017417404235</v>
       </c>
       <c r="C187" t="n">
-        <v>0.4129238285470051</v>
+        <v>0.387464068876456</v>
       </c>
       <c r="D187" t="n">
-        <v>0.2138703349470828</v>
+        <v>0.2197870963952729</v>
       </c>
       <c r="E187" t="n">
-        <v>0.02744116333512465</v>
+        <v>0.02787901887304364</v>
       </c>
       <c r="F187" t="n">
-        <v>0.2108834803781586</v>
+        <v>0.2159404535133131</v>
       </c>
       <c r="G187" t="n">
         <v>0.5</v>
@@ -5311,19 +5311,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>4.157073023136313e-16</v>
+        <v>0.03683949093608025</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0.3292438840791581</v>
       </c>
       <c r="D188" t="n">
-        <v>8.314146046272621e-16</v>
+        <v>0.06626456108687875</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>0.0007737562871268</v>
       </c>
       <c r="F188" t="n">
-        <v>1.23912395884306e-15</v>
+        <v>0.06483184440670615</v>
       </c>
       <c r="G188" t="n">
         <v>0.5</v>
@@ -5675,19 +5675,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.5904226162260638</v>
+        <v>0.5868838674891441</v>
       </c>
       <c r="C202" t="n">
-        <v>0.6166741096798575</v>
+        <v>0.6256497145992272</v>
       </c>
       <c r="D202" t="n">
-        <v>0.6032629090644012</v>
+        <v>0.6056471006189629</v>
       </c>
       <c r="E202" t="n">
-        <v>0.4770591183889435</v>
+        <v>0.4837062181364358</v>
       </c>
       <c r="F202" t="n">
-        <v>0.5981705762644747</v>
+        <v>0.6005393059253729</v>
       </c>
       <c r="G202" t="n">
         <v>0.55</v>
@@ -5701,19 +5701,19 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.7087402528904655</v>
+        <v>0.6922915007422696</v>
       </c>
       <c r="C203" t="n">
-        <v>0.5701814963515974</v>
+        <v>0.5752569099301275</v>
       </c>
       <c r="D203" t="n">
-        <v>0.6319551265074447</v>
+        <v>0.6283712182268938</v>
       </c>
       <c r="E203" t="n">
-        <v>0.5428125012933654</v>
+        <v>0.5496844805992562</v>
       </c>
       <c r="F203" t="n">
-        <v>0.6291012162766169</v>
+        <v>0.6257408703869638</v>
       </c>
       <c r="G203" t="n">
         <v>0.55</v>
@@ -5727,19 +5727,19 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.7185100655732655</v>
+        <v>0.7096597069264258</v>
       </c>
       <c r="C204" t="n">
-        <v>0.4573652162100291</v>
+        <v>0.4461763270872328</v>
       </c>
       <c r="D204" t="n">
-        <v>0.558939398728787</v>
+        <v>0.5478862956343737</v>
       </c>
       <c r="E204" t="n">
-        <v>0.3224653952137376</v>
+        <v>0.3011145810149983</v>
       </c>
       <c r="F204" t="n">
-        <v>0.5548055935981513</v>
+        <v>0.5433688014936023</v>
       </c>
       <c r="G204" t="n">
         <v>0.55</v>
@@ -5753,19 +5753,19 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.6050096543806135</v>
+        <v>0.6226908734677427</v>
       </c>
       <c r="C205" t="n">
-        <v>0.4490318568679318</v>
+        <v>0.4477343765247853</v>
       </c>
       <c r="D205" t="n">
-        <v>0.5154799040272191</v>
+        <v>0.5209146738676051</v>
       </c>
       <c r="E205" t="n">
-        <v>0.2430589445824566</v>
+        <v>0.2463058764213167</v>
       </c>
       <c r="F205" t="n">
-        <v>0.5112241909101356</v>
+        <v>0.5164276108584002</v>
       </c>
       <c r="G205" t="n">
         <v>0.55</v>
@@ -5779,19 +5779,19 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.4471074819130729</v>
+        <v>0.3996131449254304</v>
       </c>
       <c r="C206" t="n">
-        <v>0.478145212905897</v>
+        <v>0.4782578213872756</v>
       </c>
       <c r="D206" t="n">
-        <v>0.4621057648969576</v>
+        <v>0.4354127643439478</v>
       </c>
       <c r="E206" t="n">
-        <v>0.194864126153955</v>
+        <v>0.1712649864407331</v>
       </c>
       <c r="F206" t="n">
-        <v>0.4587825341115765</v>
+        <v>0.4322666193453885</v>
       </c>
       <c r="G206" t="n">
         <v>0.55</v>
@@ -5805,19 +5805,19 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.3731606775688575</v>
+        <v>0.3615488598508287</v>
       </c>
       <c r="C207" t="n">
-        <v>0.4736968491973406</v>
+        <v>0.4629041799185025</v>
       </c>
       <c r="D207" t="n">
-        <v>0.417461099705179</v>
+        <v>0.4059963888702328</v>
       </c>
       <c r="E207" t="n">
-        <v>0.1438876497357753</v>
+        <v>0.1357091541288094</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4141239946122015</v>
+        <v>0.4025796808077479</v>
       </c>
       <c r="G207" t="n">
         <v>0.55</v>
@@ -5831,19 +5831,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.1881926378130554</v>
+        <v>0.2130080073785534</v>
       </c>
       <c r="C208" t="n">
-        <v>0.4776401960997213</v>
+        <v>0.4370252392528366</v>
       </c>
       <c r="D208" t="n">
-        <v>0.2700028110699235</v>
+        <v>0.2864157360251764</v>
       </c>
       <c r="E208" t="n">
-        <v>0.06124698880667986</v>
+        <v>0.05988663826097945</v>
       </c>
       <c r="F208" t="n">
-        <v>0.2673260287592674</v>
+        <v>0.2831385126865544</v>
       </c>
       <c r="G208" t="n">
         <v>0.55</v>
@@ -5857,19 +5857,19 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.06141018218876525</v>
+        <v>4.157073023136313e-16</v>
       </c>
       <c r="C209" t="n">
-        <v>0.4213155999799829</v>
+        <v>1</v>
       </c>
       <c r="D209" t="n">
-        <v>0.1071957152878781</v>
+        <v>8.314146046272621e-16</v>
       </c>
       <c r="E209" t="n">
-        <v>0.00682421943809036</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.1058733182276546</v>
+        <v>1.23912395884306e-15</v>
       </c>
       <c r="G209" t="n">
         <v>0.55</v>
@@ -6195,19 +6195,19 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.5879171575812555</v>
+        <v>0.5850651592040376</v>
       </c>
       <c r="C222" t="n">
-        <v>0.6290305139187162</v>
+        <v>0.6263811551353637</v>
       </c>
       <c r="D222" t="n">
-        <v>0.6077793489988638</v>
+        <v>0.6050186226395312</v>
       </c>
       <c r="E222" t="n">
-        <v>0.4788845717368004</v>
+        <v>0.4836663590950003</v>
       </c>
       <c r="F222" t="n">
-        <v>0.6036198648154973</v>
+        <v>0.600342479831508</v>
       </c>
       <c r="G222" t="n">
         <v>0.6000000000000001</v>
@@ -6221,19 +6221,19 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.5736550271752566</v>
+        <v>0.5942588101496031</v>
       </c>
       <c r="C223" t="n">
-        <v>0.6268150358282442</v>
+        <v>0.5944651470955732</v>
       </c>
       <c r="D223" t="n">
-        <v>0.5990579981849364</v>
+        <v>0.5943619607147572</v>
       </c>
       <c r="E223" t="n">
-        <v>0.4770217132376578</v>
+        <v>0.4761139084132272</v>
       </c>
       <c r="F223" t="n">
-        <v>0.5968855575376681</v>
+        <v>0.5919098195666733</v>
       </c>
       <c r="G223" t="n">
         <v>0.6000000000000001</v>
@@ -6247,19 +6247,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.7481729403477413</v>
+        <v>0.7420244462384018</v>
       </c>
       <c r="C224" t="n">
-        <v>0.5517873370579207</v>
+        <v>0.5184526019622913</v>
       </c>
       <c r="D224" t="n">
-        <v>0.6351461065212954</v>
+        <v>0.6104109637237521</v>
       </c>
       <c r="E224" t="n">
-        <v>0.5299028614856395</v>
+        <v>0.4729312649071492</v>
       </c>
       <c r="F224" t="n">
-        <v>0.6327698608950076</v>
+        <v>0.6073786067956356</v>
       </c>
       <c r="G224" t="n">
         <v>0.6000000000000001</v>
@@ -6273,19 +6273,19 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.6872740695252231</v>
+        <v>0.6937034023484727</v>
       </c>
       <c r="C225" t="n">
-        <v>0.4647269148371247</v>
+        <v>0.448302396149669</v>
       </c>
       <c r="D225" t="n">
-        <v>0.5545043143427572</v>
+        <v>0.5446362845074544</v>
       </c>
       <c r="E225" t="n">
-        <v>0.3031283696476622</v>
+        <v>0.2933873346050057</v>
       </c>
       <c r="F225" t="n">
-        <v>0.5508110258081304</v>
+        <v>0.5403301235353825</v>
       </c>
       <c r="G225" t="n">
         <v>0.6000000000000001</v>
@@ -6299,19 +6299,19 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.5644798214577412</v>
+        <v>0.5123944936055257</v>
       </c>
       <c r="C226" t="n">
-        <v>0.4442749002319981</v>
+        <v>0.4585638473792857</v>
       </c>
       <c r="D226" t="n">
-        <v>0.4972154498390488</v>
+        <v>0.4839869651367179</v>
       </c>
       <c r="E226" t="n">
-        <v>0.2164988357863549</v>
+        <v>0.2075365127986558</v>
       </c>
       <c r="F226" t="n">
-        <v>0.4930331105628598</v>
+        <v>0.4802302648321978</v>
       </c>
       <c r="G226" t="n">
         <v>0.6000000000000001</v>
@@ -6325,19 +6325,19 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.4216381904733645</v>
+        <v>0.4121876881426745</v>
       </c>
       <c r="C227" t="n">
-        <v>0.490839857107965</v>
+        <v>0.4853150601027247</v>
       </c>
       <c r="D227" t="n">
-        <v>0.4536149219409271</v>
+        <v>0.4457722119194428</v>
       </c>
       <c r="E227" t="n">
-        <v>0.1953992656501547</v>
+        <v>0.1855029302245994</v>
       </c>
       <c r="F227" t="n">
-        <v>0.4506099201961914</v>
+        <v>0.4427075077822318</v>
       </c>
       <c r="G227" t="n">
         <v>0.6000000000000001</v>
@@ -6351,19 +6351,19 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.3402870661143297</v>
+        <v>0.3327314625250943</v>
       </c>
       <c r="C228" t="n">
-        <v>0.4856343135828251</v>
+        <v>0.4760564882702501</v>
       </c>
       <c r="D228" t="n">
-        <v>0.4001714444881931</v>
+        <v>0.3916946869224613</v>
       </c>
       <c r="E228" t="n">
-        <v>0.1271801902867607</v>
+        <v>0.1234014572109301</v>
       </c>
       <c r="F228" t="n">
-        <v>0.3971670000963533</v>
+        <v>0.3886444845498879</v>
       </c>
       <c r="G228" t="n">
         <v>0.6000000000000001</v>
@@ -6377,19 +6377,19 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.1964583136799548</v>
+        <v>0.1970490592079547</v>
       </c>
       <c r="C229" t="n">
-        <v>0.455556140125321</v>
+        <v>0.4557276889184526</v>
       </c>
       <c r="D229" t="n">
-        <v>0.2745270156305408</v>
+        <v>0.2751345314125896</v>
       </c>
       <c r="E229" t="n">
-        <v>0.05504792787801313</v>
+        <v>0.05525411483713381</v>
       </c>
       <c r="F229" t="n">
-        <v>0.2719411032922639</v>
+        <v>0.2725529851506183</v>
       </c>
       <c r="G229" t="n">
         <v>0.6000000000000001</v>
@@ -6403,19 +6403,19 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.1314582051146324</v>
+        <v>4.157073023136313e-16</v>
       </c>
       <c r="C230" t="n">
-        <v>0.4568350083989193</v>
+        <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2041659120253188</v>
+        <v>8.314146046272621e-16</v>
       </c>
       <c r="E230" t="n">
-        <v>0.03270230470510261</v>
+        <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>0.2020657365839065</v>
+        <v>1.23912395884306e-15</v>
       </c>
       <c r="G230" t="n">
         <v>0.6000000000000001</v>
@@ -6715,19 +6715,19 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0.5879171575812555</v>
+        <v>0.5819332056408767</v>
       </c>
       <c r="C242" t="n">
-        <v>0.6290305139187162</v>
+        <v>0.6431857798875307</v>
       </c>
       <c r="D242" t="n">
-        <v>0.6077793489988638</v>
+        <v>0.6110282627791326</v>
       </c>
       <c r="E242" t="n">
-        <v>0.4788845717368004</v>
+        <v>0.4857393862222041</v>
       </c>
       <c r="F242" t="n">
-        <v>0.6036198648154973</v>
+        <v>0.6071807357975558</v>
       </c>
       <c r="G242" t="n">
         <v>0.65</v>
@@ -6741,19 +6741,19 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0.573304162368885</v>
+        <v>0.5691390899453463</v>
       </c>
       <c r="C243" t="n">
-        <v>0.6296328421975568</v>
+        <v>0.6440585481758461</v>
       </c>
       <c r="D243" t="n">
-        <v>0.6001496800343432</v>
+        <v>0.6042855417160062</v>
       </c>
       <c r="E243" t="n">
-        <v>0.4774226554462724</v>
+        <v>0.4851404825268796</v>
       </c>
       <c r="F243" t="n">
-        <v>0.5979772020013473</v>
+        <v>0.6024964374006964</v>
       </c>
       <c r="G243" t="n">
         <v>0.65</v>
@@ -6767,19 +6767,19 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0.652208771148911</v>
+        <v>0.6587266726929657</v>
       </c>
       <c r="C244" t="n">
-        <v>0.5745836987923231</v>
+        <v>0.567559438076806</v>
       </c>
       <c r="D244" t="n">
-        <v>0.6109403787414643</v>
+        <v>0.6097541787619823</v>
       </c>
       <c r="E244" t="n">
-        <v>0.5031682942933445</v>
+        <v>0.5284420730417723</v>
       </c>
       <c r="F244" t="n">
-        <v>0.6087679377643351</v>
+        <v>0.6076004241311055</v>
       </c>
       <c r="G244" t="n">
         <v>0.65</v>
@@ -6793,19 +6793,19 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0.7410367934942693</v>
+        <v>0.7296985339396745</v>
       </c>
       <c r="C245" t="n">
-        <v>0.5220306845140273</v>
+        <v>0.4985619215246596</v>
       </c>
       <c r="D245" t="n">
-        <v>0.6125467582585518</v>
+        <v>0.5923823430058398</v>
       </c>
       <c r="E245" t="n">
-        <v>0.4460066118477792</v>
+        <v>0.4123495501637006</v>
       </c>
       <c r="F245" t="n">
-        <v>0.6098141478468836</v>
+        <v>0.5892706686194439</v>
       </c>
       <c r="G245" t="n">
         <v>0.65</v>
@@ -6819,19 +6819,19 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.641103669269835</v>
+        <v>0.6081772711220077</v>
       </c>
       <c r="C246" t="n">
-        <v>0.44321428014555</v>
+        <v>0.4464075652587143</v>
       </c>
       <c r="D246" t="n">
-        <v>0.5241014435430115</v>
+        <v>0.5148849584809513</v>
       </c>
       <c r="E246" t="n">
-        <v>0.2580907822108894</v>
+        <v>0.2499235687398421</v>
       </c>
       <c r="F246" t="n">
-        <v>0.5201006971043913</v>
+        <v>0.5110131785218004</v>
       </c>
       <c r="G246" t="n">
         <v>0.65</v>
@@ -6845,19 +6845,19 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>0.5065864095997413</v>
+        <v>0.5042545946332492</v>
       </c>
       <c r="C247" t="n">
-        <v>0.4700049792192124</v>
+        <v>0.4724445280160708</v>
       </c>
       <c r="D247" t="n">
-        <v>0.4876105557404252</v>
+        <v>0.487831551061968</v>
       </c>
       <c r="E247" t="n">
-        <v>0.2158455449296869</v>
+        <v>0.2093595379830721</v>
       </c>
       <c r="F247" t="n">
-        <v>0.4842418772597567</v>
+        <v>0.4844460985865251</v>
       </c>
       <c r="G247" t="n">
         <v>0.65</v>
@@ -6871,19 +6871,19 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.4176994981680036</v>
+        <v>0.3776030386632958</v>
       </c>
       <c r="C248" t="n">
-        <v>0.4896846726836603</v>
+        <v>0.4995957822273586</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4508366987459067</v>
+        <v>0.4301165961004694</v>
       </c>
       <c r="E248" t="n">
-        <v>0.1922298266395479</v>
+        <v>0.1608833317375771</v>
       </c>
       <c r="F248" t="n">
-        <v>0.4478059601184462</v>
+        <v>0.4273553670995741</v>
       </c>
       <c r="G248" t="n">
         <v>0.65</v>
@@ -6897,19 +6897,19 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>0.2930991121169552</v>
+        <v>0.2904206748960573</v>
       </c>
       <c r="C249" t="n">
-        <v>0.4731067025050917</v>
+        <v>0.4694588175382211</v>
       </c>
       <c r="D249" t="n">
-        <v>0.3619579799436119</v>
+        <v>0.3588478120092107</v>
       </c>
       <c r="E249" t="n">
-        <v>0.100669528407868</v>
+        <v>0.09811483214037349</v>
       </c>
       <c r="F249" t="n">
-        <v>0.3592801456328622</v>
+        <v>0.3561553945071189</v>
       </c>
       <c r="G249" t="n">
         <v>0.65</v>
@@ -6923,19 +6923,19 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>0.2143457305093371</v>
+        <v>0.2140964880378429</v>
       </c>
       <c r="C250" t="n">
-        <v>0.468469768420521</v>
+        <v>0.4678758380917418</v>
       </c>
       <c r="D250" t="n">
-        <v>0.2941189673960566</v>
+        <v>0.293767268656501</v>
       </c>
       <c r="E250" t="n">
-        <v>0.06732816353725893</v>
+        <v>0.06700436526066977</v>
       </c>
       <c r="F250" t="n">
-        <v>0.291650863244698</v>
+        <v>0.2912980365820847</v>
       </c>
       <c r="G250" t="n">
         <v>0.65</v>
@@ -6949,19 +6949,19 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>0.06284421263701112</v>
+        <v>4.157073023136313e-16</v>
       </c>
       <c r="C251" t="n">
-        <v>0.424570724842174</v>
+        <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>0.1094829512178049</v>
+        <v>8.314146046272621e-16</v>
       </c>
       <c r="E251" t="n">
-        <v>0.007360478109522131</v>
+        <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>0.1081668714595318</v>
+        <v>1.23912395884306e-15</v>
       </c>
       <c r="G251" t="n">
         <v>0.65</v>
@@ -7235,19 +7235,19 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>0.576012780332103</v>
+        <v>0.5751993221902267</v>
       </c>
       <c r="C262" t="n">
-        <v>0.6454413197868124</v>
+        <v>0.6569987959925768</v>
       </c>
       <c r="D262" t="n">
-        <v>0.6087538600352297</v>
+        <v>0.613383929999901</v>
       </c>
       <c r="E262" t="n">
-        <v>0.4858752683397734</v>
+        <v>0.4817092305868469</v>
       </c>
       <c r="F262" t="n">
-        <v>0.6053317169236259</v>
+        <v>0.6098898877258457</v>
       </c>
       <c r="G262" t="n">
         <v>0.7000000000000001</v>
@@ -7261,19 +7261,19 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>0.5720451888353258</v>
+        <v>0.568252847164594</v>
       </c>
       <c r="C263" t="n">
-        <v>0.6320911668636656</v>
+        <v>0.6451275111294628</v>
       </c>
       <c r="D263" t="n">
-        <v>0.6005710386508013</v>
+        <v>0.6042549518420388</v>
       </c>
       <c r="E263" t="n">
-        <v>0.4779942837570657</v>
+        <v>0.4851013854014329</v>
       </c>
       <c r="F263" t="n">
-        <v>0.598393535340576</v>
+        <v>0.602462607778346</v>
       </c>
       <c r="G263" t="n">
         <v>0.7000000000000001</v>
@@ -7287,19 +7287,19 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>0.6446531076259301</v>
+        <v>0.6389116839799223</v>
       </c>
       <c r="C264" t="n">
-        <v>0.5766465593127651</v>
+        <v>0.5975799907630789</v>
       </c>
       <c r="D264" t="n">
-        <v>0.6087564035689434</v>
+        <v>0.617555048707466</v>
       </c>
       <c r="E264" t="n">
-        <v>0.5096454480080875</v>
+        <v>0.5376342481330733</v>
       </c>
       <c r="F264" t="n">
-        <v>0.6065529283496135</v>
+        <v>0.6156685847203336</v>
       </c>
       <c r="G264" t="n">
         <v>0.7000000000000001</v>
@@ -7313,19 +7313,19 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>0.7568686775277829</v>
+        <v>0.7573067638662494</v>
       </c>
       <c r="C265" t="n">
-        <v>0.5584292261901476</v>
+        <v>0.5576610416455237</v>
       </c>
       <c r="D265" t="n">
-        <v>0.6426796374033305</v>
+        <v>0.6423282410606093</v>
       </c>
       <c r="E265" t="n">
-        <v>0.5542955652965144</v>
+        <v>0.5469638622044986</v>
       </c>
       <c r="F265" t="n">
-        <v>0.640351967039843</v>
+        <v>0.6400012624104938</v>
       </c>
       <c r="G265" t="n">
         <v>0.7000000000000001</v>
@@ -7339,19 +7339,19 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0.7401083108875592</v>
+        <v>0.7329959171920608</v>
       </c>
       <c r="C266" t="n">
-        <v>0.5220184954532431</v>
+        <v>0.5446589572564434</v>
       </c>
       <c r="D266" t="n">
-        <v>0.6122209352990187</v>
+        <v>0.624946219695496</v>
       </c>
       <c r="E266" t="n">
-        <v>0.4473505163412905</v>
+        <v>0.4987802425800264</v>
       </c>
       <c r="F266" t="n">
-        <v>0.6094837125038631</v>
+        <v>0.6224917204026306</v>
       </c>
       <c r="G266" t="n">
         <v>0.7000000000000001</v>
@@ -7365,19 +7365,19 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>0.59187301570557</v>
+        <v>0.5826081245070197</v>
       </c>
       <c r="C267" t="n">
-        <v>0.4671646132743213</v>
+        <v>0.4698735360213893</v>
       </c>
       <c r="D267" t="n">
-        <v>0.5221762115401645</v>
+        <v>0.5202031538287578</v>
       </c>
       <c r="E267" t="n">
-        <v>0.259742898221488</v>
+        <v>0.2561337011790317</v>
       </c>
       <c r="F267" t="n">
-        <v>0.5189410024790998</v>
+        <v>0.5169102615917133</v>
       </c>
       <c r="G267" t="n">
         <v>0.7000000000000001</v>
@@ -7391,19 +7391,19 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>0.5229514452353698</v>
+        <v>0.479427540741012</v>
       </c>
       <c r="C268" t="n">
-        <v>0.4730408175731466</v>
+        <v>0.4844603098663374</v>
       </c>
       <c r="D268" t="n">
-        <v>0.4967455841627502</v>
+        <v>0.481930786448852</v>
       </c>
       <c r="E268" t="n">
-        <v>0.2255040904353305</v>
+        <v>0.2272497201829221</v>
       </c>
       <c r="F268" t="n">
-        <v>0.4934831570619759</v>
+        <v>0.4788229006001023</v>
       </c>
       <c r="G268" t="n">
         <v>0.7000000000000001</v>
@@ -7417,19 +7417,19 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>0.3194064163596123</v>
+        <v>0.3242618241399885</v>
       </c>
       <c r="C269" t="n">
-        <v>0.4877977883823351</v>
+        <v>0.4887650942252382</v>
       </c>
       <c r="D269" t="n">
-        <v>0.3860379878599746</v>
+        <v>0.3898711283707667</v>
       </c>
       <c r="E269" t="n">
-        <v>0.1226699236716057</v>
+        <v>0.1263522850614041</v>
       </c>
       <c r="F269" t="n">
-        <v>0.3835183701768465</v>
+        <v>0.3873806827345579</v>
       </c>
       <c r="G269" t="n">
         <v>0.7000000000000001</v>
@@ -7443,19 +7443,19 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>0.3037160778390128</v>
+        <v>0.3084965626092097</v>
       </c>
       <c r="C270" t="n">
-        <v>0.4808318060124417</v>
+        <v>0.4778040479621583</v>
       </c>
       <c r="D270" t="n">
-        <v>0.3722815476996385</v>
+        <v>0.3749225281409421</v>
       </c>
       <c r="E270" t="n">
-        <v>0.1090401215707212</v>
+        <v>0.1131414825388962</v>
       </c>
       <c r="F270" t="n">
-        <v>0.3696674094751882</v>
+        <v>0.3723424694118072</v>
       </c>
       <c r="G270" t="n">
         <v>0.7000000000000001</v>
@@ -7469,19 +7469,19 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>0.2193919419640051</v>
+        <v>0.2219613372145671</v>
       </c>
       <c r="C271" t="n">
-        <v>0.4732314509318892</v>
+        <v>0.4758584851052549</v>
       </c>
       <c r="D271" t="n">
-        <v>0.2997968826444077</v>
+        <v>0.3027205083619772</v>
       </c>
       <c r="E271" t="n">
-        <v>0.07078899947996417</v>
+        <v>0.07269634837468661</v>
       </c>
       <c r="F271" t="n">
-        <v>0.2973592771943889</v>
+        <v>0.3002979597460311</v>
       </c>
       <c r="G271" t="n">
         <v>0.7000000000000001</v>
@@ -7755,19 +7755,19 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>0.5650244581291529</v>
+        <v>0.5728970865852012</v>
       </c>
       <c r="C282" t="n">
-        <v>0.6682882944516995</v>
+        <v>0.6576681732936305</v>
       </c>
       <c r="D282" t="n">
-        <v>0.6123332960864246</v>
+        <v>0.6123627778291606</v>
       </c>
       <c r="E282" t="n">
-        <v>0.4799338858472554</v>
+        <v>0.4804615620508915</v>
       </c>
       <c r="F282" t="n">
-        <v>0.6097747833170251</v>
+        <v>0.6089779258258571</v>
       </c>
       <c r="G282" t="n">
         <v>0.75</v>
@@ -7781,19 +7781,19 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>0.5720570085468329</v>
+        <v>0.5663816563907568</v>
       </c>
       <c r="C283" t="n">
-        <v>0.6328183279662231</v>
+        <v>0.648502853352753</v>
       </c>
       <c r="D283" t="n">
-        <v>0.6009055852991866</v>
+        <v>0.6046667272654745</v>
       </c>
       <c r="E283" t="n">
-        <v>0.4782176807604</v>
+        <v>0.4850583478496457</v>
       </c>
       <c r="F283" t="n">
-        <v>0.5987285402450826</v>
+        <v>0.6028677607153038</v>
       </c>
       <c r="G283" t="n">
         <v>0.75</v>
@@ -7807,19 +7807,19 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>0.648515551505508</v>
+        <v>0.6500366997781893</v>
       </c>
       <c r="C284" t="n">
-        <v>0.6192295717523151</v>
+        <v>0.6198552847363367</v>
       </c>
       <c r="D284" t="n">
-        <v>0.6335342962337742</v>
+        <v>0.6345873326921045</v>
       </c>
       <c r="E284" t="n">
-        <v>0.5591187631335076</v>
+        <v>0.5612391562333591</v>
       </c>
       <c r="F284" t="n">
-        <v>0.6317058369551939</v>
+        <v>0.6327655438673961</v>
       </c>
       <c r="G284" t="n">
         <v>0.75</v>
@@ -7833,19 +7833,19 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>0.6512333771947808</v>
+        <v>0.7649216260656545</v>
       </c>
       <c r="C285" t="n">
-        <v>0.5772086039558797</v>
+        <v>0.5967697532511314</v>
       </c>
       <c r="D285" t="n">
-        <v>0.6119906585217407</v>
+        <v>0.670463361929617</v>
       </c>
       <c r="E285" t="n">
-        <v>0.5114490512935183</v>
+        <v>0.6281195297113645</v>
       </c>
       <c r="F285" t="n">
-        <v>0.6098168380085672</v>
+        <v>0.6684954724494556</v>
       </c>
       <c r="G285" t="n">
         <v>0.75</v>
@@ -7859,19 +7859,19 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>0.7548955428954783</v>
+        <v>0.7596701755311369</v>
       </c>
       <c r="C286" t="n">
-        <v>0.5573571639417745</v>
+        <v>0.587876462504596</v>
       </c>
       <c r="D286" t="n">
-        <v>0.6412582525732849</v>
+        <v>0.6628226479975055</v>
       </c>
       <c r="E286" t="n">
-        <v>0.5528147800954368</v>
+        <v>0.5965849540868674</v>
       </c>
       <c r="F286" t="n">
-        <v>0.638920447609211</v>
+        <v>0.6608187287672043</v>
       </c>
       <c r="G286" t="n">
         <v>0.75</v>
@@ -7885,19 +7885,19 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>0.6854461198624046</v>
+        <v>0.6749258353868236</v>
       </c>
       <c r="C287" t="n">
-        <v>0.5061052358796669</v>
+        <v>0.502306823645585</v>
       </c>
       <c r="D287" t="n">
-        <v>0.5822793428147598</v>
+        <v>0.5759606649855359</v>
       </c>
       <c r="E287" t="n">
-        <v>0.4121694127885275</v>
+        <v>0.3883093983135134</v>
       </c>
       <c r="F287" t="n">
-        <v>0.5795588081576966</v>
+        <v>0.5731855586304508</v>
       </c>
       <c r="G287" t="n">
         <v>0.75</v>
@@ -7911,19 +7911,19 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>0.6209524428212898</v>
+        <v>0.6027630755696834</v>
       </c>
       <c r="C288" t="n">
-        <v>0.4931407918678725</v>
+        <v>0.4921337787027406</v>
       </c>
       <c r="D288" t="n">
-        <v>0.5497151761281752</v>
+        <v>0.541859388644816</v>
       </c>
       <c r="E288" t="n">
-        <v>0.3281127166457878</v>
+        <v>0.3068680704581541</v>
       </c>
       <c r="F288" t="n">
-        <v>0.5470026451678865</v>
+        <v>0.5390547991463176</v>
       </c>
       <c r="G288" t="n">
         <v>0.75</v>
@@ -7937,19 +7937,19 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>0.4930358687046163</v>
+        <v>0.4666575322939911</v>
       </c>
       <c r="C289" t="n">
-        <v>0.4681245501884489</v>
+        <v>0.4574993087127764</v>
       </c>
       <c r="D289" t="n">
-        <v>0.480257384152224</v>
+        <v>0.4620330423514068</v>
       </c>
       <c r="E289" t="n">
-        <v>0.209293370104693</v>
+        <v>0.1810934248039549</v>
       </c>
       <c r="F289" t="n">
-        <v>0.4772407180341937</v>
+        <v>0.4588568114882939</v>
       </c>
       <c r="G289" t="n">
         <v>0.75</v>
@@ -7963,19 +7963,19 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>0.3356914182816503</v>
+        <v>0.3259919490924219</v>
       </c>
       <c r="C290" t="n">
-        <v>0.495568290229602</v>
+        <v>0.4831836645879946</v>
       </c>
       <c r="D290" t="n">
-        <v>0.4002552282980902</v>
+        <v>0.389319653053384</v>
       </c>
       <c r="E290" t="n">
-        <v>0.1388983648261391</v>
+        <v>0.1314951492979442</v>
       </c>
       <c r="F290" t="n">
-        <v>0.3978282843168863</v>
+        <v>0.3868442868262068</v>
       </c>
       <c r="G290" t="n">
         <v>0.75</v>
@@ -7989,19 +7989,19 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>0.3123533493625756</v>
+        <v>0.3172193816215964</v>
       </c>
       <c r="C291" t="n">
-        <v>0.4830901027031516</v>
+        <v>0.4767679816178249</v>
       </c>
       <c r="D291" t="n">
-        <v>0.3793979602984316</v>
+        <v>0.3809633535947792</v>
       </c>
       <c r="E291" t="n">
-        <v>0.1169589878890319</v>
+        <v>0.1236527580781243</v>
       </c>
       <c r="F291" t="n">
-        <v>0.376837865526763</v>
+        <v>0.378439606579809</v>
       </c>
       <c r="G291" t="n">
         <v>0.75</v>
@@ -8015,19 +8015,19 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>0.2215297372337961</v>
+        <v>0.2343965084305225</v>
       </c>
       <c r="C292" t="n">
-        <v>0.4626771903434845</v>
+        <v>0.4671240594012934</v>
       </c>
       <c r="D292" t="n">
-        <v>0.2996074791694834</v>
+        <v>0.3121569161285235</v>
       </c>
       <c r="E292" t="n">
-        <v>0.06701831826372599</v>
+        <v>0.07839436728089857</v>
       </c>
       <c r="F292" t="n">
-        <v>0.2971955734938904</v>
+        <v>0.3098260796884021</v>
       </c>
       <c r="G292" t="n">
         <v>0.75</v>
@@ -8041,19 +8041,19 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>4.157073023136313e-16</v>
+        <v>0.08163677400288381</v>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0.4670673509933762</v>
       </c>
       <c r="D293" t="n">
-        <v>8.314146046272621e-16</v>
+        <v>0.138981538647743</v>
       </c>
       <c r="E293" t="n">
-        <v>0</v>
+        <v>0.0325662715912846</v>
       </c>
       <c r="F293" t="n">
-        <v>1.23912395884306e-15</v>
+        <v>0.137741058371869</v>
       </c>
       <c r="G293" t="n">
         <v>0.75</v>
@@ -8275,19 +8275,19 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>0.5650244581291529</v>
+        <v>0.563766469998755</v>
       </c>
       <c r="C302" t="n">
-        <v>0.6682882944516995</v>
+        <v>0.6668460536903046</v>
       </c>
       <c r="D302" t="n">
-        <v>0.6123332960864246</v>
+        <v>0.610989143186347</v>
       </c>
       <c r="E302" t="n">
-        <v>0.4799338858472554</v>
+        <v>0.4786888638635628</v>
       </c>
       <c r="F302" t="n">
-        <v>0.6097747833170251</v>
+        <v>0.6084216779134159</v>
       </c>
       <c r="G302" t="n">
         <v>0.8</v>
@@ -8301,19 +8301,19 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>0.5717255734010789</v>
+        <v>0.5687209367965408</v>
       </c>
       <c r="C303" t="n">
-        <v>0.6247503674621924</v>
+        <v>0.6425872472866158</v>
       </c>
       <c r="D303" t="n">
-        <v>0.5970630079066077</v>
+        <v>0.6034018857504329</v>
       </c>
       <c r="E303" t="n">
-        <v>0.4778127499205185</v>
+        <v>0.485991523100601</v>
       </c>
       <c r="F303" t="n">
-        <v>0.5944788651193607</v>
+        <v>0.6012081527672309</v>
       </c>
       <c r="G303" t="n">
         <v>0.8</v>
@@ -8327,19 +8327,19 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>0.5535413115255877</v>
+        <v>0.5625892260199403</v>
       </c>
       <c r="C304" t="n">
-        <v>0.6240978789457008</v>
+        <v>0.6430764968232739</v>
       </c>
       <c r="D304" t="n">
-        <v>0.5867059473346616</v>
+        <v>0.6001462955523824</v>
       </c>
       <c r="E304" t="n">
-        <v>0.4745776546581811</v>
+        <v>0.4853260577258038</v>
       </c>
       <c r="F304" t="n">
-        <v>0.58484041159898</v>
+        <v>0.5983284644118848</v>
       </c>
       <c r="G304" t="n">
         <v>0.8</v>
@@ -8353,19 +8353,19 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>0.6473192767173018</v>
+        <v>0.6494268250143902</v>
       </c>
       <c r="C305" t="n">
-        <v>0.6174360386146298</v>
+        <v>0.6127106776875985</v>
       </c>
       <c r="D305" t="n">
-        <v>0.6320246218223226</v>
+        <v>0.6305347067355556</v>
       </c>
       <c r="E305" t="n">
-        <v>0.5579186660159532</v>
+        <v>0.5574234405232198</v>
       </c>
       <c r="F305" t="n">
-        <v>0.6301898881710607</v>
+        <v>0.6287036779657775</v>
       </c>
       <c r="G305" t="n">
         <v>0.8</v>
@@ -8379,19 +8379,19 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>0.6495275831153878</v>
+        <v>0.7627747542356073</v>
       </c>
       <c r="C306" t="n">
-        <v>0.5764008611700606</v>
+        <v>0.5982734035213427</v>
       </c>
       <c r="D306" t="n">
-        <v>0.6107832149691832</v>
+        <v>0.6705829558430438</v>
       </c>
       <c r="E306" t="n">
-        <v>0.5118072259536997</v>
+        <v>0.6334238020389569</v>
       </c>
       <c r="F306" t="n">
-        <v>0.6086013379735701</v>
+        <v>0.6686096215031433</v>
       </c>
       <c r="G306" t="n">
         <v>0.8</v>
@@ -8405,19 +8405,19 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>0.6364535893132817</v>
+        <v>0.7225575897181554</v>
       </c>
       <c r="C307" t="n">
-        <v>0.5387489996232454</v>
+        <v>0.583527520658913</v>
       </c>
       <c r="D307" t="n">
-        <v>0.5835397875687862</v>
+        <v>0.6456428229853866</v>
       </c>
       <c r="E307" t="n">
-        <v>0.4750268931819185</v>
+        <v>0.5817467455304549</v>
       </c>
       <c r="F307" t="n">
-        <v>0.5812670903768878</v>
+        <v>0.6437599968300892</v>
       </c>
       <c r="G307" t="n">
         <v>0.8</v>
@@ -8431,19 +8431,19 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>0.6981933845021432</v>
+        <v>0.7045482809980025</v>
       </c>
       <c r="C308" t="n">
-        <v>0.5122583240701306</v>
+        <v>0.5168776417945455</v>
       </c>
       <c r="D308" t="n">
-        <v>0.590945298336229</v>
+        <v>0.5962952762293708</v>
       </c>
       <c r="E308" t="n">
-        <v>0.4424628454690506</v>
+        <v>0.4327211491994237</v>
       </c>
       <c r="F308" t="n">
-        <v>0.5882915051733875</v>
+        <v>0.5936763588877153</v>
       </c>
       <c r="G308" t="n">
         <v>0.8</v>
@@ -8457,19 +8457,19 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>0.6075615790828326</v>
+        <v>0.5752956109950323</v>
       </c>
       <c r="C309" t="n">
-        <v>0.5072466857816614</v>
+        <v>0.4923367079823895</v>
       </c>
       <c r="D309" t="n">
-        <v>0.5528907653649296</v>
+        <v>0.5305930556791274</v>
       </c>
       <c r="E309" t="n">
-        <v>0.3498982394804687</v>
+        <v>0.3024000563557771</v>
       </c>
       <c r="F309" t="n">
-        <v>0.5504726060995777</v>
+        <v>0.5280187047253857</v>
       </c>
       <c r="G309" t="n">
         <v>0.8</v>
@@ -8483,19 +8483,19 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>0.4719665258827901</v>
+        <v>0.4887400038708779</v>
       </c>
       <c r="C310" t="n">
-        <v>0.4687659032461017</v>
+        <v>0.4792477564776479</v>
       </c>
       <c r="D310" t="n">
-        <v>0.4703607698785047</v>
+        <v>0.4839473389036678</v>
       </c>
       <c r="E310" t="n">
-        <v>0.1983546232919497</v>
+        <v>0.2098660971997823</v>
       </c>
       <c r="F310" t="n">
-        <v>0.4676715977963947</v>
+        <v>0.4813439381487973</v>
       </c>
       <c r="G310" t="n">
         <v>0.8</v>
@@ -8509,19 +8509,19 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>0.3584210604969548</v>
+        <v>0.3390274210114351</v>
       </c>
       <c r="C311" t="n">
-        <v>0.5088215777316104</v>
+        <v>0.4925561309677884</v>
       </c>
       <c r="D311" t="n">
-        <v>0.4205798042098399</v>
+        <v>0.4016193788054915</v>
       </c>
       <c r="E311" t="n">
-        <v>0.1627086015935958</v>
+        <v>0.1433444878843181</v>
       </c>
       <c r="F311" t="n">
-        <v>0.4182733762304668</v>
+        <v>0.3992141444522899</v>
       </c>
       <c r="G311" t="n">
         <v>0.8</v>
@@ -8535,19 +8535,19 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>0.2570876579175493</v>
+        <v>0.2558840563330391</v>
       </c>
       <c r="C312" t="n">
-        <v>0.4878749150271199</v>
+        <v>0.4779769156618405</v>
       </c>
       <c r="D312" t="n">
-        <v>0.3367326730664132</v>
+        <v>0.3333238220330377</v>
       </c>
       <c r="E312" t="n">
-        <v>0.09454196227307116</v>
+        <v>0.09450500578895583</v>
       </c>
       <c r="F312" t="n">
-        <v>0.3345237547917173</v>
+        <v>0.3311162248557346</v>
       </c>
       <c r="G312" t="n">
         <v>0.8</v>
@@ -8561,19 +8561,19 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>0.1729650418135381</v>
+        <v>0.177245082690094</v>
       </c>
       <c r="C313" t="n">
-        <v>0.5098701213367829</v>
+        <v>0.500910703407388</v>
       </c>
       <c r="D313" t="n">
-        <v>0.2583045268190915</v>
+        <v>0.2618394205753583</v>
       </c>
       <c r="E313" t="n">
-        <v>0.07039879673122836</v>
+        <v>0.07544602146945749</v>
       </c>
       <c r="F313" t="n">
-        <v>0.2564273268169031</v>
+        <v>0.2599923849669334</v>
       </c>
       <c r="G313" t="n">
         <v>0.8</v>
@@ -8587,19 +8587,19 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>4.157073023136313e-16</v>
+        <v>0.08803512297445529</v>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>0.4789345986040688</v>
       </c>
       <c r="D314" t="n">
-        <v>8.314146046272621e-16</v>
+        <v>0.1487312802787515</v>
       </c>
       <c r="E314" t="n">
-        <v>0</v>
+        <v>0.03698706465219831</v>
       </c>
       <c r="F314" t="n">
-        <v>1.23912395884306e-15</v>
+        <v>0.1475149730537642</v>
       </c>
       <c r="G314" t="n">
         <v>0.8</v>
@@ -8795,19 +8795,19 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>0.5650244581291529</v>
+        <v>0.563766469998755</v>
       </c>
       <c r="C322" t="n">
-        <v>0.6682882944516995</v>
+        <v>0.6668460536903046</v>
       </c>
       <c r="D322" t="n">
-        <v>0.6123332960864246</v>
+        <v>0.610989143186347</v>
       </c>
       <c r="E322" t="n">
-        <v>0.4799338858472554</v>
+        <v>0.4786888638635628</v>
       </c>
       <c r="F322" t="n">
-        <v>0.6097747833170251</v>
+        <v>0.6084216779134159</v>
       </c>
       <c r="G322" t="n">
         <v>0.8500000000000001</v>
@@ -8821,19 +8821,19 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>0.567056588419818</v>
+        <v>0.5664383725800299</v>
       </c>
       <c r="C323" t="n">
-        <v>0.6441800993509835</v>
+        <v>0.6421119137418548</v>
       </c>
       <c r="D323" t="n">
-        <v>0.6031629873071185</v>
+        <v>0.6019059886057777</v>
       </c>
       <c r="E323" t="n">
-        <v>0.4856159937068357</v>
+        <v>0.4855168700299894</v>
       </c>
       <c r="F323" t="n">
-        <v>0.6009611107523589</v>
+        <v>0.5996986747127033</v>
       </c>
       <c r="G323" t="n">
         <v>0.8500000000000001</v>
@@ -8847,19 +8847,19 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>0.5521648146483876</v>
+        <v>0.5588856012223188</v>
       </c>
       <c r="C324" t="n">
-        <v>0.6238258831573118</v>
+        <v>0.6417440665697478</v>
       </c>
       <c r="D324" t="n">
-        <v>0.5858119520658582</v>
+        <v>0.5974556986173104</v>
       </c>
       <c r="E324" t="n">
-        <v>0.474158377436114</v>
+        <v>0.4834393020643103</v>
       </c>
       <c r="F324" t="n">
-        <v>0.5839403310594085</v>
+        <v>0.5956211261889383</v>
       </c>
       <c r="G324" t="n">
         <v>0.8500000000000001</v>
@@ -8873,19 +8873,19 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>0.5515924617815425</v>
+        <v>0.6537236348733944</v>
       </c>
       <c r="C325" t="n">
-        <v>0.6225908495194274</v>
+        <v>0.6249876515980106</v>
       </c>
       <c r="D325" t="n">
-        <v>0.5849451547537068</v>
+        <v>0.6390327569268306</v>
       </c>
       <c r="E325" t="n">
-        <v>0.4737597099042092</v>
+        <v>0.5678161391402805</v>
       </c>
       <c r="F325" t="n">
-        <v>0.583070538401399</v>
+        <v>0.6372305596281875</v>
       </c>
       <c r="G325" t="n">
         <v>0.8500000000000001</v>
@@ -8899,19 +8899,19 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>0.6464007426520728</v>
+        <v>0.6470871875774341</v>
       </c>
       <c r="C326" t="n">
-        <v>0.6147254021102511</v>
+        <v>0.6108532767547987</v>
       </c>
       <c r="D326" t="n">
-        <v>0.6301652821987098</v>
+        <v>0.6284483885929393</v>
       </c>
       <c r="E326" t="n">
-        <v>0.5567537313270597</v>
+        <v>0.5567670097969879</v>
       </c>
       <c r="F326" t="n">
-        <v>0.6283242918040782</v>
+        <v>0.6266065160258389</v>
       </c>
       <c r="G326" t="n">
         <v>0.8500000000000001</v>
@@ -8925,19 +8925,19 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>0.6319563354865497</v>
+        <v>0.7333909076534295</v>
       </c>
       <c r="C327" t="n">
-        <v>0.6170750279079302</v>
+        <v>0.6241577390596779</v>
       </c>
       <c r="D327" t="n">
-        <v>0.6244270316754152</v>
+        <v>0.6743796796913265</v>
       </c>
       <c r="E327" t="n">
-        <v>0.5489675215640116</v>
+        <v>0.6589483493900088</v>
       </c>
       <c r="F327" t="n">
-        <v>0.6228548496073688</v>
+        <v>0.6728570873500177</v>
       </c>
       <c r="G327" t="n">
         <v>0.8500000000000001</v>
@@ -8951,19 +8951,19 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>0.6469514548988784</v>
+        <v>0.7291591242958825</v>
       </c>
       <c r="C328" t="n">
-        <v>0.5494742652566487</v>
+        <v>0.5885792552075666</v>
       </c>
       <c r="D328" t="n">
-        <v>0.5942419480769282</v>
+        <v>0.6513704707721897</v>
       </c>
       <c r="E328" t="n">
-        <v>0.4962062602188983</v>
+        <v>0.5946469276678729</v>
       </c>
       <c r="F328" t="n">
-        <v>0.5920235229155227</v>
+        <v>0.6495185871700615</v>
       </c>
       <c r="G328" t="n">
         <v>0.8500000000000001</v>
@@ -8977,19 +8977,19 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>0.6417650792162028</v>
+        <v>0.6291826679340282</v>
       </c>
       <c r="C329" t="n">
-        <v>0.5244736737538188</v>
+        <v>0.5793360508679961</v>
       </c>
       <c r="D329" t="n">
-        <v>0.5772212386636143</v>
+        <v>0.6032313715038158</v>
       </c>
       <c r="E329" t="n">
-        <v>0.418267429839945</v>
+        <v>0.4990219255034887</v>
       </c>
       <c r="F329" t="n">
-        <v>0.5749619829615302</v>
+        <v>0.601623081598206</v>
       </c>
       <c r="G329" t="n">
         <v>0.8500000000000001</v>
@@ -9003,19 +9003,19 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>0.5990830327263835</v>
+        <v>0.5546869906200498</v>
       </c>
       <c r="C330" t="n">
-        <v>0.501738203466394</v>
+        <v>0.4998224599170843</v>
       </c>
       <c r="D330" t="n">
-        <v>0.5461065515176817</v>
+        <v>0.5258274660212822</v>
       </c>
       <c r="E330" t="n">
-        <v>0.3386569475914921</v>
+        <v>0.3184090187725489</v>
       </c>
       <c r="F330" t="n">
-        <v>0.5436471840236499</v>
+        <v>0.5235408622812392</v>
       </c>
       <c r="G330" t="n">
         <v>0.8500000000000001</v>
@@ -9029,19 +9029,19 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>0.5148838294538185</v>
+        <v>0.5351459515186153</v>
       </c>
       <c r="C331" t="n">
-        <v>0.4783708909627667</v>
+        <v>0.4936559894411854</v>
       </c>
       <c r="D331" t="n">
-        <v>0.4959562359489022</v>
+        <v>0.513564358064696</v>
       </c>
       <c r="E331" t="n">
-        <v>0.2519554871192635</v>
+        <v>0.2826657769722709</v>
       </c>
       <c r="F331" t="n">
-        <v>0.4934853853399785</v>
+        <v>0.5111886785485592</v>
       </c>
       <c r="G331" t="n">
         <v>0.8500000000000001</v>
@@ -9055,19 +9055,19 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>0.2937090744774576</v>
+        <v>0.3773936338907921</v>
       </c>
       <c r="C332" t="n">
-        <v>0.507612699389296</v>
+        <v>0.4913691130976354</v>
       </c>
       <c r="D332" t="n">
-        <v>0.3721113315346533</v>
+        <v>0.4269049883099613</v>
       </c>
       <c r="E332" t="n">
-        <v>0.1315553626313075</v>
+        <v>0.1625597364110906</v>
       </c>
       <c r="F332" t="n">
-        <v>0.370091049963774</v>
+        <v>0.4247088790680467</v>
       </c>
       <c r="G332" t="n">
         <v>0.8500000000000001</v>
@@ -9081,19 +9081,19 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>0.2807819332509718</v>
+        <v>0.2772808437514884</v>
       </c>
       <c r="C333" t="n">
-        <v>0.5013112690527421</v>
+        <v>0.4969530023394027</v>
       </c>
       <c r="D333" t="n">
-        <v>0.3599549180852371</v>
+        <v>0.3559533040030091</v>
       </c>
       <c r="E333" t="n">
-        <v>0.1172002255637446</v>
+        <v>0.1157617422027331</v>
       </c>
       <c r="F333" t="n">
-        <v>0.3578702970542963</v>
+        <v>0.3538525944898567</v>
       </c>
       <c r="G333" t="n">
         <v>0.8500000000000001</v>
@@ -9107,19 +9107,19 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>0.1805394934757329</v>
+        <v>0.1887800166276182</v>
       </c>
       <c r="C334" t="n">
-        <v>0.5033291075072888</v>
+        <v>0.5128705793098062</v>
       </c>
       <c r="D334" t="n">
-        <v>0.26575509385966</v>
+        <v>0.2759770092137316</v>
       </c>
       <c r="E334" t="n">
-        <v>0.07885472648499828</v>
+        <v>0.08437033410316444</v>
       </c>
       <c r="F334" t="n">
-        <v>0.2639247518747257</v>
+        <v>0.2741851341948229</v>
       </c>
       <c r="G334" t="n">
         <v>0.8500000000000001</v>
@@ -9133,19 +9133,19 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>4.157073023136313e-16</v>
+        <v>0.09279550327126354</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0.4867663188373026</v>
       </c>
       <c r="D335" t="n">
-        <v>8.314146046272621e-16</v>
+        <v>0.1558754348851724</v>
       </c>
       <c r="E335" t="n">
-        <v>0</v>
+        <v>0.04047558168225168</v>
       </c>
       <c r="F335" t="n">
-        <v>1.23912395884306e-15</v>
+        <v>0.1546767666298391</v>
       </c>
       <c r="G335" t="n">
         <v>0.8500000000000001</v>
@@ -9315,19 +9315,19 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>0.5650244581291529</v>
+        <v>0.563766469998755</v>
       </c>
       <c r="C342" t="n">
-        <v>0.6682882944516995</v>
+        <v>0.6668460536903046</v>
       </c>
       <c r="D342" t="n">
-        <v>0.6123332960864246</v>
+        <v>0.610989143186347</v>
       </c>
       <c r="E342" t="n">
-        <v>0.4799338858472554</v>
+        <v>0.4786888638635628</v>
       </c>
       <c r="F342" t="n">
-        <v>0.6097747833170251</v>
+        <v>0.6084216779134159</v>
       </c>
       <c r="G342" t="n">
         <v>0.9</v>
@@ -9341,19 +9341,19 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>0.5677164664633297</v>
+        <v>0.5654225296660587</v>
       </c>
       <c r="C343" t="n">
-        <v>0.6495879337299433</v>
+        <v>0.6449756582128062</v>
       </c>
       <c r="D343" t="n">
-        <v>0.6058990115140092</v>
+        <v>0.6025847888599337</v>
       </c>
       <c r="E343" t="n">
-        <v>0.4857534359363389</v>
+        <v>0.4847911637955655</v>
       </c>
       <c r="F343" t="n">
-        <v>0.6036985335007686</v>
+        <v>0.6003720053140761</v>
       </c>
       <c r="G343" t="n">
         <v>0.9</v>
@@ -9367,19 +9367,19 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>0.5568620844585798</v>
+        <v>0.5571033258104965</v>
       </c>
       <c r="C344" t="n">
-        <v>0.63912720696447</v>
+        <v>0.6428512909640319</v>
       </c>
       <c r="D344" t="n">
-        <v>0.5951653769089352</v>
+        <v>0.5969135618816939</v>
       </c>
       <c r="E344" t="n">
-        <v>0.4821702069244507</v>
+        <v>0.4827981741290269</v>
       </c>
       <c r="F344" t="n">
-        <v>0.5933207398379431</v>
+        <v>0.5950714462787641</v>
       </c>
       <c r="G344" t="n">
         <v>0.9</v>
@@ -9393,19 +9393,19 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>0.5525999450344822</v>
+        <v>0.555888306648154</v>
       </c>
       <c r="C345" t="n">
-        <v>0.6255549592349499</v>
+        <v>0.637073045123982</v>
       </c>
       <c r="D345" t="n">
-        <v>0.5868186514975067</v>
+        <v>0.5937182386320875</v>
       </c>
       <c r="E345" t="n">
-        <v>0.4752065021421843</v>
+        <v>0.4815276012368743</v>
       </c>
       <c r="F345" t="n">
-        <v>0.5849496559408714</v>
+        <v>0.5918684658503253</v>
       </c>
       <c r="G345" t="n">
         <v>0.9</v>
@@ -9419,19 +9419,19 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>0.64519568817344</v>
+        <v>0.6511566901844307</v>
       </c>
       <c r="C346" t="n">
-        <v>0.6174613679805819</v>
+        <v>0.6250026607470014</v>
       </c>
       <c r="D346" t="n">
-        <v>0.631023935269007</v>
+        <v>0.6378116708253415</v>
       </c>
       <c r="E346" t="n">
-        <v>0.5582103446535166</v>
+        <v>0.5680902264797256</v>
       </c>
       <c r="F346" t="n">
-        <v>0.6291806459818857</v>
+        <v>0.63599924282065</v>
       </c>
       <c r="G346" t="n">
         <v>0.9</v>
@@ -9445,19 +9445,19 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>0.6255689548291417</v>
+        <v>0.7310640292179582</v>
       </c>
       <c r="C347" t="n">
-        <v>0.6181428512348202</v>
+        <v>0.626177042651174</v>
       </c>
       <c r="D347" t="n">
-        <v>0.6218337326970509</v>
+        <v>0.6745677260914665</v>
       </c>
       <c r="E347" t="n">
-        <v>0.5553462093653579</v>
+        <v>0.6663352710643136</v>
       </c>
       <c r="F347" t="n">
-        <v>0.6202406019991606</v>
+        <v>0.67304048301838</v>
       </c>
       <c r="G347" t="n">
         <v>0.9</v>
@@ -9471,19 +9471,19 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>0.628729293136279</v>
+        <v>0.7301367402532902</v>
       </c>
       <c r="C348" t="n">
-        <v>0.6190894364017488</v>
+        <v>0.6223955409703262</v>
       </c>
       <c r="D348" t="n">
-        <v>0.6238721290569419</v>
+        <v>0.6719748692743028</v>
       </c>
       <c r="E348" t="n">
-        <v>0.5570057651741899</v>
+        <v>0.6606425425247542</v>
       </c>
       <c r="F348" t="n">
-        <v>0.6222905605015164</v>
+        <v>0.6704396222299871</v>
       </c>
       <c r="G348" t="n">
         <v>0.9</v>
@@ -9497,19 +9497,19 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>0.728970158934042</v>
+        <v>0.6785873691856417</v>
       </c>
       <c r="C349" t="n">
-        <v>0.5866972875259961</v>
+        <v>0.6113871208436944</v>
       </c>
       <c r="D349" t="n">
-        <v>0.65014121324463</v>
+        <v>0.6432368718824378</v>
       </c>
       <c r="E349" t="n">
-        <v>0.5930551640200726</v>
+        <v>0.5959474485106887</v>
       </c>
       <c r="F349" t="n">
-        <v>0.6482870711435941</v>
+        <v>0.6418077103469653</v>
       </c>
       <c r="G349" t="n">
         <v>0.9</v>
@@ -9523,19 +9523,19 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>0.6594902557294825</v>
+        <v>0.637620484793178</v>
       </c>
       <c r="C350" t="n">
-        <v>0.5352484763648993</v>
+        <v>0.5503088813260015</v>
       </c>
       <c r="D350" t="n">
-        <v>0.590909368005352</v>
+        <v>0.5907560259132</v>
       </c>
       <c r="E350" t="n">
-        <v>0.4678962213568716</v>
+        <v>0.4730482724277458</v>
       </c>
       <c r="F350" t="n">
-        <v>0.5887315087644601</v>
+        <v>0.5888284779147124</v>
       </c>
       <c r="G350" t="n">
         <v>0.9</v>
@@ -9549,19 +9549,19 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>0.5777255421625812</v>
+        <v>0.5721587559157059</v>
       </c>
       <c r="C351" t="n">
-        <v>0.5135576947246407</v>
+        <v>0.5095175853454179</v>
       </c>
       <c r="D351" t="n">
-        <v>0.5437550721714609</v>
+        <v>0.539024358078352</v>
       </c>
       <c r="E351" t="n">
-        <v>0.3606021256506698</v>
+        <v>0.3522592134999341</v>
       </c>
       <c r="F351" t="n">
-        <v>0.5415710182061159</v>
+        <v>0.5368155448138321</v>
       </c>
       <c r="G351" t="n">
         <v>0.9</v>
@@ -9575,19 +9575,19 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>0.500142408252007</v>
+        <v>0.5132034835179015</v>
       </c>
       <c r="C352" t="n">
-        <v>0.5071837616450633</v>
+        <v>0.5173425643305587</v>
       </c>
       <c r="D352" t="n">
-        <v>0.5036384749170044</v>
+        <v>0.5152647118308455</v>
       </c>
       <c r="E352" t="n">
-        <v>0.287638116644598</v>
+        <v>0.3104446620937041</v>
       </c>
       <c r="F352" t="n">
-        <v>0.501522105620909</v>
+        <v>0.5132040527602111</v>
       </c>
       <c r="G352" t="n">
         <v>0.9</v>
@@ -9601,19 +9601,19 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>0.441241464054045</v>
+        <v>0.4831645015660428</v>
       </c>
       <c r="C353" t="n">
-        <v>0.4732522521267586</v>
+        <v>0.503126258611163</v>
       </c>
       <c r="D353" t="n">
-        <v>0.4566866079022892</v>
+        <v>0.4929433748785689</v>
       </c>
       <c r="E353" t="n">
-        <v>0.2068039733196939</v>
+        <v>0.2602450272873771</v>
       </c>
       <c r="F353" t="n">
-        <v>0.45430374719627</v>
+        <v>0.4907519072135882</v>
       </c>
       <c r="G353" t="n">
         <v>0.9</v>
@@ -9627,19 +9627,19 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>0.2318835827279295</v>
+        <v>0.3101422802739226</v>
       </c>
       <c r="C354" t="n">
-        <v>0.5540385939150985</v>
+        <v>0.5127448435771507</v>
       </c>
       <c r="D354" t="n">
-        <v>0.3269342892837866</v>
+        <v>0.3865022319014764</v>
       </c>
       <c r="E354" t="n">
-        <v>0.1247162517881406</v>
+        <v>0.1573692500682821</v>
       </c>
       <c r="F354" t="n">
-        <v>0.3253301282744733</v>
+        <v>0.3845617915788341</v>
       </c>
       <c r="G354" t="n">
         <v>0.9</v>
@@ -9653,19 +9653,19 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>0.1168113471416323</v>
+        <v>0.2889786713968858</v>
       </c>
       <c r="C355" t="n">
-        <v>0.5466272621525486</v>
+        <v>0.4962204346199898</v>
       </c>
       <c r="D355" t="n">
-        <v>0.1924888481974618</v>
+        <v>0.3652503443206619</v>
       </c>
       <c r="E355" t="n">
-        <v>0.05878154144521016</v>
+        <v>0.1348620509852303</v>
       </c>
       <c r="F355" t="n">
-        <v>0.1913653441425341</v>
+        <v>0.3632131612196174</v>
       </c>
       <c r="G355" t="n">
         <v>0.9</v>
@@ -9679,19 +9679,19 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>0.1043091093862039</v>
+        <v>0.100783828153505</v>
       </c>
       <c r="C356" t="n">
-        <v>0.5165111988601605</v>
+        <v>0.503676732201652</v>
       </c>
       <c r="D356" t="n">
-        <v>0.1735665616135852</v>
+        <v>0.1679595743791926</v>
       </c>
       <c r="E356" t="n">
-        <v>0.04933309031596605</v>
+        <v>0.04711695413523286</v>
       </c>
       <c r="F356" t="n">
-        <v>0.1724048112124404</v>
+        <v>0.1667880186786346</v>
       </c>
       <c r="G356" t="n">
         <v>0.9</v>
@@ -9835,19 +9835,19 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>0.5650244581291529</v>
+        <v>0.563766469998755</v>
       </c>
       <c r="C362" t="n">
-        <v>0.6682882944516995</v>
+        <v>0.6668460536903046</v>
       </c>
       <c r="D362" t="n">
-        <v>0.6123332960864246</v>
+        <v>0.610989143186347</v>
       </c>
       <c r="E362" t="n">
-        <v>0.4799338858472554</v>
+        <v>0.4786888638635628</v>
       </c>
       <c r="F362" t="n">
-        <v>0.6097747833170251</v>
+        <v>0.6084216779134159</v>
       </c>
       <c r="G362" t="n">
         <v>0.9500000000000001</v>
@@ -9861,19 +9861,19 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>0.5677713501209279</v>
+        <v>0.5577061174174217</v>
       </c>
       <c r="C363" t="n">
-        <v>0.6514605489282622</v>
+        <v>0.6604236531446674</v>
       </c>
       <c r="D363" t="n">
-        <v>0.6067436977394853</v>
+        <v>0.6047341101859538</v>
       </c>
       <c r="E363" t="n">
-        <v>0.4856268366838918</v>
+        <v>0.479041194248673</v>
       </c>
       <c r="F363" t="n">
-        <v>0.6045413360782462</v>
+        <v>0.6028924165599335</v>
       </c>
       <c r="G363" t="n">
         <v>0.9500000000000001</v>
@@ -9887,19 +9887,19 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>0.5638172401214632</v>
+        <v>0.5561783404277697</v>
       </c>
       <c r="C364" t="n">
-        <v>0.653046682357226</v>
+        <v>0.6425532030947642</v>
       </c>
       <c r="D364" t="n">
-        <v>0.6051604806675944</v>
+        <v>0.5962538919825724</v>
       </c>
       <c r="E364" t="n">
-        <v>0.4852058992076008</v>
+        <v>0.4819396100548054</v>
       </c>
       <c r="F364" t="n">
-        <v>0.6033510841808558</v>
+        <v>0.5944075326525691</v>
       </c>
       <c r="G364" t="n">
         <v>0.9500000000000001</v>
@@ -9913,19 +9913,19 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>0.5524254044928479</v>
+        <v>0.5550955434210959</v>
       </c>
       <c r="C365" t="n">
-        <v>0.6262720440785525</v>
+        <v>0.6398081280475175</v>
       </c>
       <c r="D365" t="n">
-        <v>0.5870354393181665</v>
+        <v>0.5944489903311837</v>
       </c>
       <c r="E365" t="n">
-        <v>0.4753362170465232</v>
+        <v>0.4809855216963575</v>
       </c>
       <c r="F365" t="n">
-        <v>0.5851660339433058</v>
+        <v>0.5925967815728446</v>
       </c>
       <c r="G365" t="n">
         <v>0.9500000000000001</v>
@@ -9939,19 +9939,19 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>0.5522005816201261</v>
+        <v>0.6497650209732829</v>
       </c>
       <c r="C366" t="n">
-        <v>0.6253802234173061</v>
+        <v>0.6277206077499268</v>
       </c>
       <c r="D366" t="n">
-        <v>0.5865165628167378</v>
+        <v>0.6385526141184726</v>
       </c>
       <c r="E366" t="n">
-        <v>0.4748117358673246</v>
+        <v>0.569608940578469</v>
       </c>
       <c r="F366" t="n">
-        <v>0.5846458067336765</v>
+        <v>0.6367368708337758</v>
       </c>
       <c r="G366" t="n">
         <v>0.9500000000000001</v>
@@ -9965,19 +9965,19 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>0.6248782032394332</v>
+        <v>0.6199960553215016</v>
       </c>
       <c r="C367" t="n">
-        <v>0.6188729607895082</v>
+        <v>0.611922660996136</v>
       </c>
       <c r="D367" t="n">
-        <v>0.6218610843649708</v>
+        <v>0.6159329036147529</v>
       </c>
       <c r="E367" t="n">
-        <v>0.5553149760709353</v>
+        <v>0.5503197927839052</v>
       </c>
       <c r="F367" t="n">
-        <v>0.6202661239513856</v>
+        <v>0.6143159311796581</v>
       </c>
       <c r="G367" t="n">
         <v>0.9500000000000001</v>
@@ -9991,19 +9991,19 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>0.6260229465772014</v>
+        <v>0.7357891148582194</v>
       </c>
       <c r="C368" t="n">
-        <v>0.6183368085825341</v>
+        <v>0.6318967612550584</v>
       </c>
       <c r="D368" t="n">
-        <v>0.6221561397833713</v>
+        <v>0.6798969950130953</v>
       </c>
       <c r="E368" t="n">
-        <v>0.5551329355339597</v>
+        <v>0.6733587286951893</v>
       </c>
       <c r="F368" t="n">
-        <v>0.6205647211862175</v>
+        <v>0.6783924843399445</v>
       </c>
       <c r="G368" t="n">
         <v>0.9500000000000001</v>
@@ -10017,19 +10017,19 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>0.6164353619023031</v>
+        <v>0.7220255460323909</v>
       </c>
       <c r="C369" t="n">
-        <v>0.6412662519095877</v>
+        <v>0.6470944930465143</v>
       </c>
       <c r="D369" t="n">
-        <v>0.6286056879159629</v>
+        <v>0.6825095555402004</v>
       </c>
       <c r="E369" t="n">
-        <v>0.5626502321613303</v>
+        <v>0.6699503886242049</v>
       </c>
       <c r="F369" t="n">
-        <v>0.6273263601289412</v>
+        <v>0.6812414047340649</v>
       </c>
       <c r="G369" t="n">
         <v>0.9500000000000001</v>
@@ -10043,19 +10043,19 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>0.7027580651848432</v>
+        <v>0.6740917364057478</v>
       </c>
       <c r="C370" t="n">
-        <v>0.630797844458311</v>
+        <v>0.6084245324058238</v>
       </c>
       <c r="D370" t="n">
-        <v>0.6648364264126194</v>
+        <v>0.6395769932826547</v>
       </c>
       <c r="E370" t="n">
-        <v>0.6376101237802233</v>
+        <v>0.5948873754227243</v>
       </c>
       <c r="F370" t="n">
-        <v>0.6634965496615483</v>
+        <v>0.6381317421481676</v>
       </c>
       <c r="G370" t="n">
         <v>0.9500000000000001</v>
@@ -10069,19 +10069,19 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>0.6773701677839286</v>
+        <v>0.6388800873747448</v>
       </c>
       <c r="C371" t="n">
-        <v>0.5777494526785274</v>
+        <v>0.5790462059446887</v>
       </c>
       <c r="D371" t="n">
-        <v>0.6236062879070152</v>
+        <v>0.6074933970588486</v>
       </c>
       <c r="E371" t="n">
-        <v>0.5525492599465712</v>
+        <v>0.5341449871414216</v>
       </c>
       <c r="F371" t="n">
-        <v>0.6218450619179114</v>
+        <v>0.6059159735643096</v>
       </c>
       <c r="G371" t="n">
         <v>0.9500000000000001</v>
@@ -10095,19 +10095,19 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>0.5574445199539512</v>
+        <v>0.5865489093375391</v>
       </c>
       <c r="C372" t="n">
-        <v>0.5440819599718892</v>
+        <v>0.5170865491951234</v>
       </c>
       <c r="D372" t="n">
-        <v>0.5506821897056053</v>
+        <v>0.5496317631308422</v>
       </c>
       <c r="E372" t="n">
-        <v>0.3860137424539692</v>
+        <v>0.3912734151441298</v>
       </c>
       <c r="F372" t="n">
-        <v>0.548803665848356</v>
+        <v>0.5474854773616754</v>
       </c>
       <c r="G372" t="n">
         <v>0.9500000000000001</v>
@@ -10121,19 +10121,19 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>0.5236404355477974</v>
+        <v>0.5366251385780324</v>
       </c>
       <c r="C373" t="n">
-        <v>0.5211939568968046</v>
+        <v>0.5287914434088556</v>
       </c>
       <c r="D373" t="n">
-        <v>0.5224143320086835</v>
+        <v>0.5326794915636993</v>
       </c>
       <c r="E373" t="n">
-        <v>0.3325984642787699</v>
+        <v>0.3495271177788909</v>
       </c>
       <c r="F373" t="n">
-        <v>0.5203972920005204</v>
+        <v>0.5307160587603839</v>
       </c>
       <c r="G373" t="n">
         <v>0.9500000000000001</v>
@@ -10147,19 +10147,19 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>0.4654134932558754</v>
+        <v>0.4779353256537101</v>
       </c>
       <c r="C374" t="n">
-        <v>0.5474421004711445</v>
+        <v>0.5616476448683045</v>
       </c>
       <c r="D374" t="n">
-        <v>0.5031061523747249</v>
+        <v>0.5164210220142079</v>
       </c>
       <c r="E374" t="n">
-        <v>0.3277363461485838</v>
+        <v>0.3376459644202989</v>
       </c>
       <c r="F374" t="n">
-        <v>0.5012887047941471</v>
+        <v>0.514652964510392</v>
       </c>
       <c r="G374" t="n">
         <v>0.9500000000000001</v>
@@ -10173,19 +10173,19 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>0.3251343716761941</v>
+        <v>0.3923826280255223</v>
       </c>
       <c r="C375" t="n">
-        <v>0.5371051023111243</v>
+        <v>0.5797553869888963</v>
       </c>
       <c r="D375" t="n">
-        <v>0.4050645678663832</v>
+        <v>0.4680116173736562</v>
       </c>
       <c r="E375" t="n">
-        <v>0.1670988723269063</v>
+        <v>0.2536047984730648</v>
       </c>
       <c r="F375" t="n">
-        <v>0.4031831800987929</v>
+        <v>0.4664030854135399</v>
       </c>
       <c r="G375" t="n">
         <v>0.9500000000000001</v>
@@ -10199,19 +10199,19 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>0.1389809533407216</v>
+        <v>0.2149386475992233</v>
       </c>
       <c r="C376" t="n">
-        <v>0.5739188492802367</v>
+        <v>0.4972352005210587</v>
       </c>
       <c r="D376" t="n">
-        <v>0.2237727897242436</v>
+        <v>0.3001375628178764</v>
       </c>
       <c r="E376" t="n">
-        <v>0.08026447280317464</v>
+        <v>0.1068431353639403</v>
       </c>
       <c r="F376" t="n">
-        <v>0.2227187842366983</v>
+        <v>0.2984861871368452</v>
       </c>
       <c r="G376" t="n">
         <v>0.9500000000000001</v>
@@ -10225,19 +10225,19 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>0.1389809533407216</v>
+        <v>0.2149386475992233</v>
       </c>
       <c r="C377" t="n">
-        <v>0.5739188492802367</v>
+        <v>0.4972352005210587</v>
       </c>
       <c r="D377" t="n">
-        <v>0.2237727897242436</v>
+        <v>0.3001375628178764</v>
       </c>
       <c r="E377" t="n">
-        <v>0.08026447280317464</v>
+        <v>0.1068431353639403</v>
       </c>
       <c r="F377" t="n">
-        <v>0.2227187842366983</v>
+        <v>0.2984861871368452</v>
       </c>
       <c r="G377" t="n">
         <v>0.9500000000000001</v>
@@ -10355,19 +10355,19 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>0.5650057152817318</v>
+        <v>0.5637474285349456</v>
       </c>
       <c r="C382" t="n">
-        <v>0.6704020536895349</v>
+        <v>0.6685498228456799</v>
       </c>
       <c r="D382" t="n">
-        <v>0.6132080457719825</v>
+        <v>0.6116920946703185</v>
       </c>
       <c r="E382" t="n">
-        <v>0.4805843248181961</v>
+        <v>0.478879853166136</v>
       </c>
       <c r="F382" t="n">
-        <v>0.6109370619974522</v>
+        <v>0.60941285823209</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -10381,19 +10381,19 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>0.5603829729803289</v>
+        <v>0.5591246862335427</v>
       </c>
       <c r="C383" t="n">
-        <v>0.6685842148892611</v>
+        <v>0.6667227555239366</v>
       </c>
       <c r="D383" t="n">
-        <v>0.6097204444926484</v>
+        <v>0.6082015408909827</v>
       </c>
       <c r="E383" t="n">
-        <v>0.4804778969401085</v>
+        <v>0.4787735692362469</v>
       </c>
       <c r="F383" t="n">
-        <v>0.6078855996465422</v>
+        <v>0.6063600962956912</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -10407,19 +10407,19 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>0.565145459209604</v>
+        <v>0.5626813908944051</v>
       </c>
       <c r="C384" t="n">
-        <v>0.6584966629836713</v>
+        <v>0.6562054364398315</v>
       </c>
       <c r="D384" t="n">
-        <v>0.6082601967360485</v>
+        <v>0.6058554074228009</v>
       </c>
       <c r="E384" t="n">
-        <v>0.4855076496628415</v>
+        <v>0.4828977298222316</v>
       </c>
       <c r="F384" t="n">
-        <v>0.6064577511205168</v>
+        <v>0.6040406562170969</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -10433,19 +10433,19 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>0.5592372775749099</v>
+        <v>0.5592024891240246</v>
       </c>
       <c r="C385" t="n">
-        <v>0.6505386126595235</v>
+        <v>0.6505571869425207</v>
       </c>
       <c r="D385" t="n">
-        <v>0.6014427062694589</v>
+        <v>0.6014305245131509</v>
       </c>
       <c r="E385" t="n">
-        <v>0.4842667877097981</v>
+        <v>0.4819533075175252</v>
       </c>
       <c r="F385" t="n">
-        <v>0.5996124106114975</v>
+        <v>0.5995994958910753</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -10459,19 +10459,19 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>0.5547811354463414</v>
+        <v>0.6532317016059651</v>
       </c>
       <c r="C386" t="n">
-        <v>0.6302321623232158</v>
+        <v>0.6366964920349806</v>
       </c>
       <c r="D386" t="n">
-        <v>0.5901046262798467</v>
+        <v>0.6448581168299182</v>
       </c>
       <c r="E386" t="n">
-        <v>0.4766467734642316</v>
+        <v>0.572428257452436</v>
       </c>
       <c r="F386" t="n">
-        <v>0.5882471529317266</v>
+        <v>0.6430631324502931</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -10485,19 +10485,19 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>0.5318619074853654</v>
+        <v>0.6523000660230129</v>
       </c>
       <c r="C387" t="n">
-        <v>0.6270547565051159</v>
+        <v>0.6352131938870762</v>
       </c>
       <c r="D387" t="n">
-        <v>0.5755487849216422</v>
+        <v>0.643643248132705</v>
       </c>
       <c r="E387" t="n">
-        <v>0.4726110495629758</v>
+        <v>0.5714564609987285</v>
       </c>
       <c r="F387" t="n">
-        <v>0.5739913636490032</v>
+        <v>0.6418432782548944</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -10511,19 +10511,19 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>0.5314468467994653</v>
+        <v>0.6220729630362292</v>
       </c>
       <c r="C388" t="n">
-        <v>0.6260749463375025</v>
+        <v>0.6165471293964273</v>
       </c>
       <c r="D388" t="n">
-        <v>0.5748929446753652</v>
+        <v>0.619297720064992</v>
       </c>
       <c r="E388" t="n">
-        <v>0.4722651259153006</v>
+        <v>0.5544109490708455</v>
       </c>
       <c r="F388" t="n">
-        <v>0.5733337108073331</v>
+        <v>0.617691341374474</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -10537,19 +10537,19 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>0.6117697157526208</v>
+        <v>0.6153434330142208</v>
       </c>
       <c r="C389" t="n">
-        <v>0.6378565254908203</v>
+        <v>0.6405209365765735</v>
       </c>
       <c r="D389" t="n">
-        <v>0.6245408305481543</v>
+        <v>0.6276798061544462</v>
       </c>
       <c r="E389" t="n">
-        <v>0.5592201378023854</v>
+        <v>0.5648160679455574</v>
       </c>
       <c r="F389" t="n">
-        <v>0.6232460016129886</v>
+        <v>0.6263968776091793</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -10563,19 +10563,19 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>0.5955296714392703</v>
+        <v>0.7307268042090639</v>
       </c>
       <c r="C390" t="n">
-        <v>0.6121470534131083</v>
+        <v>0.6568546173413153</v>
       </c>
       <c r="D390" t="n">
-        <v>0.6037240365565332</v>
+        <v>0.6918243036484185</v>
       </c>
       <c r="E390" t="n">
-        <v>0.5445351696280127</v>
+        <v>0.6867306755620062</v>
       </c>
       <c r="F390" t="n">
-        <v>0.6023672497484116</v>
+        <v>0.690591338048544</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -10589,19 +10589,19 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>0.7045433899811457</v>
+        <v>0.6790715213248387</v>
       </c>
       <c r="C391" t="n">
-        <v>0.6317799448128373</v>
+        <v>0.6106611359940028</v>
       </c>
       <c r="D391" t="n">
-        <v>0.6661806651893268</v>
+        <v>0.6430520066002887</v>
       </c>
       <c r="E391" t="n">
-        <v>0.648256766961775</v>
+        <v>0.6067784682381148</v>
       </c>
       <c r="F391" t="n">
-        <v>0.6648468859841793</v>
+        <v>0.6416236036081636</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -10615,19 +10615,19 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>0.6633294370958785</v>
+        <v>0.6685063059399264</v>
       </c>
       <c r="C392" t="n">
-        <v>0.5977637210058744</v>
+        <v>0.601678839303967</v>
       </c>
       <c r="D392" t="n">
-        <v>0.6288421597148515</v>
+        <v>0.6333345965057473</v>
       </c>
       <c r="E392" t="n">
-        <v>0.5760539107639029</v>
+        <v>0.5883972816518195</v>
       </c>
       <c r="F392" t="n">
-        <v>0.6273551827950629</v>
+        <v>0.6318666116130814</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -10641,19 +10641,19 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>0.5889289004306483</v>
+        <v>0.5846005497180824</v>
       </c>
       <c r="C393" t="n">
-        <v>0.565674514786048</v>
+        <v>0.561667098564571</v>
       </c>
       <c r="D393" t="n">
-        <v>0.5770675291689892</v>
+        <v>0.5729044086193069</v>
       </c>
       <c r="E393" t="n">
-        <v>0.4467205153325847</v>
+        <v>0.439749768740256</v>
       </c>
       <c r="F393" t="n">
-        <v>0.5753139768021406</v>
+        <v>0.5711333824648595</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -10667,19 +10667,19 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>0.5106360799423774</v>
+        <v>0.5165594151524231</v>
       </c>
       <c r="C394" t="n">
-        <v>0.5766073932867721</v>
+        <v>0.5784165692680999</v>
       </c>
       <c r="D394" t="n">
-        <v>0.5416202464738897</v>
+        <v>0.5457407815089622</v>
       </c>
       <c r="E394" t="n">
-        <v>0.3986622014410147</v>
+        <v>0.4155255506816892</v>
       </c>
       <c r="F394" t="n">
-        <v>0.5399760713537337</v>
+        <v>0.5441179689131104</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -10693,19 +10693,19 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>0.4905363770393567</v>
+        <v>0.5059454193078082</v>
       </c>
       <c r="C395" t="n">
-        <v>0.5621913334285025</v>
+        <v>0.5731936278629005</v>
       </c>
       <c r="D395" t="n">
-        <v>0.5239252223737532</v>
+        <v>0.5374741858410081</v>
       </c>
       <c r="E395" t="n">
-        <v>0.3692065136593147</v>
+        <v>0.3991158205592419</v>
       </c>
       <c r="F395" t="n">
-        <v>0.5222053331181674</v>
+        <v>0.5358124013027088</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -10719,19 +10719,19 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>0.3094900434102043</v>
+        <v>0.4151388513029401</v>
       </c>
       <c r="C396" t="n">
-        <v>0.5990068669644921</v>
+        <v>0.589303091266678</v>
       </c>
       <c r="D396" t="n">
-        <v>0.4081173180509576</v>
+        <v>0.4871214512445833</v>
       </c>
       <c r="E396" t="n">
-        <v>0.2149572087436434</v>
+        <v>0.2986105596521712</v>
       </c>
       <c r="F396" t="n">
-        <v>0.4068006833875095</v>
+        <v>0.4855964418208056</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -10745,19 +10745,19 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>0.2893856043308322</v>
+        <v>0.290863785082231</v>
       </c>
       <c r="C397" t="n">
-        <v>0.579798698888444</v>
+        <v>0.5821613084429466</v>
       </c>
       <c r="D397" t="n">
-        <v>0.386075533685136</v>
+        <v>0.3879147185068999</v>
       </c>
       <c r="E397" t="n">
-        <v>0.1877257397236343</v>
+        <v>0.1891753782017913</v>
       </c>
       <c r="F397" t="n">
-        <v>0.3846934543906502</v>
+        <v>0.3865372557587267</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -10771,19 +10771,19 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>0.1503706134255837</v>
+        <v>0.2418269166881708</v>
       </c>
       <c r="C398" t="n">
-        <v>0.5978904852753808</v>
+        <v>0.5242832887642119</v>
       </c>
       <c r="D398" t="n">
-        <v>0.2403042445698722</v>
+        <v>0.3309858302125531</v>
       </c>
       <c r="E398" t="n">
-        <v>0.09047231556007303</v>
+        <v>0.1356371315290549</v>
       </c>
       <c r="F398" t="n">
-        <v>0.2392807089724873</v>
+        <v>0.3294395358747926</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -10797,19 +10797,19 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>0.1511777480326695</v>
+        <v>0.1282543367529865</v>
       </c>
       <c r="C399" t="n">
-        <v>0.6182402101111896</v>
+        <v>0.517881047402277</v>
       </c>
       <c r="D399" t="n">
-        <v>0.242947702789071</v>
+        <v>0.2055931059660415</v>
       </c>
       <c r="E399" t="n">
-        <v>0.08867711263519766</v>
+        <v>0.06072877738517231</v>
       </c>
       <c r="F399" t="n">
-        <v>0.2419217747232014</v>
+        <v>0.2045193652631445</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
